--- a/data/data_comparison.xlsx
+++ b/data/data_comparison.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\Localization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mean + median errors" sheetId="1" r:id="rId1"/>
     <sheet name="Chance of match" sheetId="2" r:id="rId2"/>
+    <sheet name="LocationAPI - with(out) RSSI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Location</t>
   </si>
@@ -59,17 +60,39 @@
   <si>
     <t>Mean3</t>
   </si>
+  <si>
+    <t>LocationAPI with RSSI mean error (km)</t>
+  </si>
+  <si>
+    <t>LocationAPI without RSSI mean error (km)</t>
+  </si>
+  <si>
+    <t>LocationAPI with RSSI median error (km)</t>
+  </si>
+  <si>
+    <t>LocationAPI without RSSI median error (km)</t>
+  </si>
+  <si>
+    <t>Extreme value</t>
+  </si>
+  <si>
+    <t>Different value</t>
+  </si>
+  <si>
+    <t>Best value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +136,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +181,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -221,13 +268,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,13 +391,564 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="4" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="3" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="46">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -624,106 +1309,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6027,35 +6612,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:E38" totalsRowCount="1" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:E38" totalsRowCount="1" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="A1:E37"/>
   <sortState ref="A2:E37">
     <sortCondition ref="A1:A37"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="WiGLE mean error (km)" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" totalsRowCellStyle="Goed"/>
-    <tableColumn id="3" name="LocationAPI mean error (km)" totalsRowFunction="average" totalsRowDxfId="11" dataCellStyle="Goed" totalsRowCellStyle="Standaard"/>
-    <tableColumn id="4" name="WiGLE median error (km)" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="LocationAPI median error (km)" totalsRowFunction="average" totalsRowDxfId="8" totalsRowCellStyle="Goed"/>
+    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" name="WiGLE mean error (km)" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="40" totalsRowCellStyle="Goed"/>
+    <tableColumn id="3" name="LocationAPI mean error (km)" totalsRowFunction="average" totalsRowDxfId="39" dataCellStyle="Goed" totalsRowCellStyle="Standaard"/>
+    <tableColumn id="4" name="WiGLE median error (km)" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="5" name="LocationAPI median error (km)" totalsRowFunction="average" totalsRowDxfId="36" totalsRowCellStyle="Goed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G38" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G38" totalsRowShown="0" dataDxfId="35">
   <autoFilter ref="A1:G38"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="6"/>
-    <tableColumn id="2" name="WiGLE chance of BSSID match (%)" dataDxfId="5"/>
-    <tableColumn id="5" name="Mean" dataDxfId="4"/>
-    <tableColumn id="3" name="WiGLE 2 BSSIDs not found (%)" dataDxfId="3"/>
-    <tableColumn id="6" name="Mean2" dataDxfId="2" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" name="LocationAPI 2 BSSIDs not found (%)" dataDxfId="1"/>
-    <tableColumn id="7" name="Mean3" dataDxfId="0"/>
+    <tableColumn id="1" name="Location" dataDxfId="34"/>
+    <tableColumn id="2" name="WiGLE chance of BSSID match (%)" dataDxfId="33"/>
+    <tableColumn id="5" name="Mean" dataDxfId="32"/>
+    <tableColumn id="3" name="WiGLE 2 BSSIDs not found (%)" dataDxfId="31"/>
+    <tableColumn id="6" name="Mean2" dataDxfId="30" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" name="LocationAPI 2 BSSIDs not found (%)" dataDxfId="29"/>
+    <tableColumn id="7" name="Mean3" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:E38" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="11">
+  <autoFilter ref="A1:E37"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="LocationAPI with RSSI mean error (km)" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="3" totalsRowCellStyle="Neutraal"/>
+    <tableColumn id="3" name="LocationAPI without RSSI mean error (km)" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="2" totalsRowCellStyle="Neutraal"/>
+    <tableColumn id="4" name="LocationAPI with RSSI median error (km)" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="1" totalsRowCellStyle="Neutraal"/>
+    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="0" totalsRowCellStyle="Neutraal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6356,10 +6955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6373,9 +6972,10 @@
     <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6392,7 +6992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6408,8 +7008,11 @@
       <c r="E2" s="6">
         <v>2.2963518229667992E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P2" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6425,8 +7028,11 @@
       <c r="E3" s="6">
         <v>5.8544262287531769E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P3" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6443,7 +7049,7 @@
         <v>0.30805396715219591</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6460,7 +7066,7 @@
         <v>6.4528522437704669E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6477,7 +7083,7 @@
         <v>2.73776840170065E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6494,7 +7100,7 @@
         <v>1.3113749685182309E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6511,7 +7117,7 @@
         <v>2.270711644424948E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6528,7 +7134,7 @@
         <v>3.710694621264924E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6545,7 +7151,7 @@
         <v>0.17294743318736339</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6562,7 +7168,7 @@
         <v>3.5847624697633446E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6579,7 +7185,7 @@
         <v>6.2981399718856759E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6596,7 +7202,7 @@
         <v>4.4597081552155853E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6613,7 +7219,7 @@
         <v>5.5727207882154878E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6630,7 +7236,7 @@
         <v>2.0758705629549509E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7089,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7983,4 +8589,707 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>546.38786479147541</v>
+      </c>
+      <c r="C2" s="30">
+        <v>546.38786479147495</v>
+      </c>
+      <c r="D2" s="30">
+        <v>2.2963518229667992E-2</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2.2963518229667992E-2</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28">
+        <v>6.6589453826347497E-2</v>
+      </c>
+      <c r="C3" s="31">
+        <v>6.7508700279675579E-2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>5.8544262287531769E-2</v>
+      </c>
+      <c r="E3" s="30">
+        <v>5.8544262287531769E-2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.31081984144760638</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0.31081984144760638</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.30805396715219591</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0.30805396715219591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28">
+        <v>6.75349237985714E-2</v>
+      </c>
+      <c r="C5" s="31">
+        <v>6.7684447273782491E-2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>6.4528522437704669E-2</v>
+      </c>
+      <c r="E5" s="31">
+        <v>6.4929687360808092E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2.2467670715647552</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2.2467670715647552</v>
+      </c>
+      <c r="D6" s="30">
+        <v>2.73776840170065E-2</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2.73776840170065E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1.7181463681379079E-2</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1.5458090292626001E-2</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1.3113749685182309E-2</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1.5691085358153091E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28">
+        <v>2.523377474158545E-2</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2.579172889491679E-2</v>
+      </c>
+      <c r="D8" s="30">
+        <v>2.270711644424948E-2</v>
+      </c>
+      <c r="E8" s="30">
+        <v>2.270711644424948E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <v>4.2604164317743352E-2</v>
+      </c>
+      <c r="C9" s="30">
+        <v>4.2604164317743352E-2</v>
+      </c>
+      <c r="D9" s="30">
+        <v>3.710694621264924E-2</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3.710694621264924E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.16779120910126999</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.1630582383899318</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.17294743318736339</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.16233527625047309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28">
+        <v>4.0055828890416499E-2</v>
+      </c>
+      <c r="C11" s="31">
+        <v>3.6925145765380543E-2</v>
+      </c>
+      <c r="D11" s="31">
+        <v>3.5847624697633446E-2</v>
+      </c>
+      <c r="E11" s="31">
+        <v>3.2558574752882707E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28">
+        <v>7.7630827700998273E-2</v>
+      </c>
+      <c r="C12" s="31">
+        <v>6.4277820153357132E-2</v>
+      </c>
+      <c r="D12" s="31">
+        <v>6.2981399718856759E-2</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6.1840837056184733E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28">
+        <v>4.4704625976817368E-2</v>
+      </c>
+      <c r="C13" s="31">
+        <v>4.5296107161432078E-2</v>
+      </c>
+      <c r="D13" s="31">
+        <v>4.4597081552155853E-2</v>
+      </c>
+      <c r="E13" s="31">
+        <v>3.6608694278261328E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1.9077187438057179</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1.9077187438057179</v>
+      </c>
+      <c r="D14" s="30">
+        <v>5.5727207882154878E-2</v>
+      </c>
+      <c r="E14" s="30">
+        <v>5.5727207882154878E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>2.3659057236574479E-2</v>
+      </c>
+      <c r="C15" s="30">
+        <v>2.3659057236574479E-2</v>
+      </c>
+      <c r="D15" s="30">
+        <v>2.0758705629549509E-2</v>
+      </c>
+      <c r="E15" s="30">
+        <v>2.0758705629549509E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28">
+        <v>5.0776323191418303E-2</v>
+      </c>
+      <c r="C16" s="31">
+        <v>3.893424249758428E-2</v>
+      </c>
+      <c r="D16" s="31">
+        <v>4.8382735876750647E-2</v>
+      </c>
+      <c r="E16" s="31">
+        <v>3.6557797618095036E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>4.8740845352458151E-2</v>
+      </c>
+      <c r="C17" s="30">
+        <v>4.8740845352458151E-2</v>
+      </c>
+      <c r="D17" s="30">
+        <v>3.883072403776161E-2</v>
+      </c>
+      <c r="E17" s="30">
+        <v>3.883072403776161E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28">
+        <v>0.21899005151813941</v>
+      </c>
+      <c r="C18" s="31">
+        <v>4.8933393131479527E-2</v>
+      </c>
+      <c r="D18" s="31">
+        <v>4.358991946510065E-2</v>
+      </c>
+      <c r="E18" s="31">
+        <v>4.4653914860836197E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>6.1523920674473327E-2</v>
+      </c>
+      <c r="C19" s="30">
+        <v>6.1523920674473327E-2</v>
+      </c>
+      <c r="D19" s="30">
+        <v>5.0269067311446723E-2</v>
+      </c>
+      <c r="E19" s="30">
+        <v>5.0269067311446723E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28">
+        <v>4.3399808422187283E-2</v>
+      </c>
+      <c r="C20" s="31">
+        <v>4.3257634327963798E-2</v>
+      </c>
+      <c r="D20" s="30">
+        <v>4.4336515176840202E-2</v>
+      </c>
+      <c r="E20" s="30">
+        <v>4.4336515176840202E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28">
+        <v>3.8577956147864592E-2</v>
+      </c>
+      <c r="C21" s="31">
+        <v>3.7930646256254898E-2</v>
+      </c>
+      <c r="D21" s="30">
+        <v>2.8742163613464201E-2</v>
+      </c>
+      <c r="E21" s="30">
+        <v>2.8742163613464201E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28">
+        <v>3.9541356031615189E-2</v>
+      </c>
+      <c r="C22" s="31">
+        <v>3.8610859221155432E-2</v>
+      </c>
+      <c r="D22" s="31">
+        <v>3.5628454750964662E-2</v>
+      </c>
+      <c r="E22" s="31">
+        <v>3.3334472749350988E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28">
+        <v>4.1108137227847541</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1.4510001727621571</v>
+      </c>
+      <c r="D23" s="31">
+        <v>4.3063385848842825E-2</v>
+      </c>
+      <c r="E23" s="31">
+        <v>3.6947996248945639E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>8.6846575250509331E-2</v>
+      </c>
+      <c r="C24" s="30">
+        <v>8.6846575250509331E-2</v>
+      </c>
+      <c r="D24" s="30">
+        <v>8.1037218864693797E-2</v>
+      </c>
+      <c r="E24" s="30">
+        <v>8.1037218864693797E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>10.2055248780983</v>
+      </c>
+      <c r="C25" s="30">
+        <v>10.2055248780983</v>
+      </c>
+      <c r="D25" s="30">
+        <v>8.7838087348634006E-2</v>
+      </c>
+      <c r="E25" s="30">
+        <v>8.7838087348634006E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>1.965581555301946E-2</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1.965581555301946E-2</v>
+      </c>
+      <c r="D26" s="30">
+        <v>1.7671811392270621E-2</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1.7671811392270621E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>4.7616282868674489E-2</v>
+      </c>
+      <c r="C27" s="30">
+        <v>4.7616282868674489E-2</v>
+      </c>
+      <c r="D27" s="30">
+        <v>4.3173697986620796E-2</v>
+      </c>
+      <c r="E27" s="30">
+        <v>4.3173697986620796E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28">
+        <v>4.6439693993404037E-2</v>
+      </c>
+      <c r="C28" s="31">
+        <v>4.8338039186879282E-2</v>
+      </c>
+      <c r="D28" s="31">
+        <v>3.9782807177896902E-2</v>
+      </c>
+      <c r="E28" s="31">
+        <v>4.2009666844848061E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28">
+        <v>5.3188907899153801E-2</v>
+      </c>
+      <c r="C29" s="31">
+        <v>5.1441372574987668E-2</v>
+      </c>
+      <c r="D29" s="31">
+        <v>4.9081688292464259E-2</v>
+      </c>
+      <c r="E29" s="31">
+        <v>4.840450380244337E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28">
+        <v>0.2722447537588471</v>
+      </c>
+      <c r="C30" s="31">
+        <v>0.27196085285516208</v>
+      </c>
+      <c r="D30" s="31">
+        <v>4.3665588408730027E-2</v>
+      </c>
+      <c r="E30" s="31">
+        <v>4.4409305118097139E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28">
+        <v>2.50015373576042E-2</v>
+      </c>
+      <c r="C31" s="31">
+        <v>2.540145694882423E-2</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2.2248419911489559E-2</v>
+      </c>
+      <c r="E31" s="31">
+        <v>2.2945301714554809E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28">
+        <v>6.5363042605087864</v>
+      </c>
+      <c r="C32" s="31">
+        <v>6.5338109722380606</v>
+      </c>
+      <c r="D32" s="31">
+        <v>3.7989621013067493E-2</v>
+      </c>
+      <c r="E32" s="31">
+        <v>3.6810921495245744E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="28">
+        <v>0.1199194010314637</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0.12089671764559989</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.1044433098927853</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0.1054239517201123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="27">
+        <v>4.4541066152575998E-2</v>
+      </c>
+      <c r="C34" s="30">
+        <v>4.4541066152575998E-2</v>
+      </c>
+      <c r="D34" s="30">
+        <v>3.796387400858528E-2</v>
+      </c>
+      <c r="E34" s="30">
+        <v>3.796387400858528E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="27">
+        <v>2.5581608712796501E-2</v>
+      </c>
+      <c r="C35" s="30">
+        <v>2.5581608712796501E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2.1730259127721412E-2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>2.1730259127721412E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="28">
+        <v>1.3142008187728709E-2</v>
+      </c>
+      <c r="C36" s="31">
+        <v>1.539060874652811E-2</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1.563338138862146E-2</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1.6589648080492361E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="33">
+        <v>0.14525513124737119</v>
+      </c>
+      <c r="C37" s="34">
+        <v>2.1920824388186742E-2</v>
+      </c>
+      <c r="D37" s="34">
+        <v>9.9956408058352684E-3</v>
+      </c>
+      <c r="E37" s="34">
+        <v>1.1002763469003101E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="35">
+        <f>SUBTOTAL(101,Tabel3[LocationAPI with RSSI mean error (km)])</f>
+        <v>15.935549491175237</v>
+      </c>
+      <c r="C38" s="35">
+        <f>SUBTOTAL(101,Tabel3[LocationAPI without RSSI mean error (km)])</f>
+        <v>15.852591464819502</v>
+      </c>
+      <c r="D38" s="35">
+        <f>SUBTOTAL(101,Tabel3[LocationAPI with RSSI median error (km)])</f>
+        <v>5.2565377523180253E-2</v>
+      </c>
+      <c r="E38" s="35">
+        <f>SUBTOTAL(101,Tabel3[LocationAPI without RSSI median error (km)])</f>
+        <v>5.1607978486161984E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D37">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C37">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B37 B4:C37">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E37">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/data_comparison.xlsx
+++ b/data/data_comparison.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\Localization\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11748" activeTab="2"/>
+    <workbookView activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Mean + median errors" sheetId="1" r:id="rId1"/>
-    <sheet name="Chance of match" sheetId="2" r:id="rId2"/>
-    <sheet name="Chance of corrupt BSSID" sheetId="3" r:id="rId3"/>
-    <sheet name="LocationAPI - with(out) RSSI" sheetId="4" r:id="rId4"/>
+    <sheet name="Mean + median errors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Chance of match" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chance of corrupt BSSID" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LocationAPI - with(out) RSSI" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -75,7 +70,10 @@
     <t>LocationAPI chance of corrupt BSSID (%)</t>
   </si>
   <si>
-    <t>"Corrupt" if error &gt; 500 meters</t>
+    <t>WiGLE: "Corrupt" if error &gt; 500 meters</t>
+  </si>
+  <si>
+    <t>LocationAPI: "Corrupt" if error &gt; 100 meters</t>
   </si>
   <si>
     <t>LocationAPI with RSSI mean error (km)</t>
@@ -93,75 +91,75 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt formatCode="&quot;BAP &quot;\ 0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt formatCode="0.0" numFmtId="166"/>
+    <numFmt formatCode="0.0000" numFmtId="167"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -173,7 +171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -207,8 +205,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor theme="4" tint="0.7999816888943144"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,7 +447,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thick">
         <color theme="0"/>
       </top>
@@ -458,94 +473,101 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="4" fillId="5" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="5" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="5" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="11" fillId="4" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="7" fillId="5" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="7" fontId="7" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf borderId="10" fillId="5" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="7" fontId="7" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="12" fillId="4" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="7" fontId="7" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="13" fillId="7" fontId="7" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="3" fillId="7" fontId="7" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="6" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="9" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="17" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="9" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="5" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="3"/>
+    <xf borderId="7" fillId="9" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="9" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="9" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="9" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="9" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="4" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="3" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standaard" xfId="0"/>
+    <cellStyle builtinId="26" name="Goed" xfId="1"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="2"/>
+    <cellStyle builtinId="27" name="Ongeldig" xfId="3"/>
+    <cellStyle builtinId="28" name="Neutraal" xfId="4"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt formatCode="0.0" numFmtId="166"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.7999816888943144"/>
+          <bgColor theme="4" tint="0.7999816888943144"/>
+        </patternFill>
+      </fill>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -554,11 +576,33 @@
           <color indexed="64"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </bottom>
+        <diagonal/>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -569,19 +613,52 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <diagonal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt formatCode="0.0000" numFmtId="167"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -601,6 +678,7 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color theme="0"/>
@@ -621,6 +699,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -631,19 +710,19 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt formatCode="0.0000" numFmtId="167"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -663,6 +742,7 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color theme="0"/>
@@ -670,7 +750,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt formatCode="0.0000" numFmtId="167"/>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -684,6 +764,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -694,19 +775,19 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt formatCode="0.0000" numFmtId="167"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -726,6 +807,7 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color theme="0"/>
@@ -733,7 +815,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt formatCode="0.0000" numFmtId="167"/>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -747,6 +829,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -757,19 +840,19 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
+      <numFmt formatCode="0.0000" numFmtId="167"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -789,21 +872,22 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -820,24 +904,25 @@
         </right>
         <top/>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <numFmt formatCode="&quot;BAP &quot;\ 0" numFmtId="164"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -853,22 +938,23 @@
           <color theme="0"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -886,24 +972,25 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <numFmt formatCode="&quot;BAP &quot;\ 0" numFmtId="164"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -952,59 +1039,22 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <fgColor theme="4" tint="0.7999816888943144"/>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1015,23 +1065,23 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt formatCode="0.0" numFmtId="166"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <fgColor theme="4" tint="0.7999816888943144"/>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <border>
@@ -1047,23 +1097,24 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1079,6 +1130,7 @@
         </right>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1089,20 +1141,20 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <numFmt formatCode="&quot;BAP &quot;\ 0" numFmtId="164"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -1120,6 +1172,7 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1132,6 +1185,7 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1144,6 +1198,7 @@
         </right>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1166,6 +1221,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1176,21 +1232,22 @@
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1208,6 +1265,7 @@
         </right>
         <top/>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1222,20 +1280,20 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt formatCode="0.0" numFmtId="166"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -1245,20 +1303,20 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt formatCode="0.0" numFmtId="166"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -1274,11 +1332,12 @@
         </right>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt formatCode="0.0" numFmtId="166"/>
       <border>
         <left/>
         <right style="thin">
@@ -1286,26 +1345,27 @@
         </right>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt formatCode="0.0" numFmtId="166"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -1319,29 +1379,30 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt formatCode="0.0" numFmtId="166"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt formatCode="0.0" numFmtId="166"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -1351,20 +1412,20 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <numFmt formatCode="&quot;BAP &quot;\ 0" numFmtId="164"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
@@ -1380,21 +1441,22 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1406,19 +1468,19 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color rgb="FF006100"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt formatCode="0.000" numFmtId="165"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1432,23 +1494,24 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt formatCode="0.000" numFmtId="165"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1464,10 +1527,11 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt formatCode="0.000" numFmtId="165"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1481,25 +1545,26 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt formatCode="0.000" numFmtId="165"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1513,23 +1578,24 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color rgb="FF006100"/>
+        <extend val="0"/>
+        <sz val="11"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt formatCode="0.000" numFmtId="165"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1545,6 +1611,7 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1555,12 +1622,13 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <alignment horizontal="right" vertical="bottom"/>
       <border outline="0">
         <left/>
@@ -1569,10 +1637,11 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <numFmt formatCode="&quot;BAP &quot;\ 0" numFmtId="164"/>
     </dxf>
     <dxf>
       <border>
@@ -1582,6 +1651,7 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1598,6 +1668,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1711,74 +1782,66 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel2" displayName="Tabel2" ref="A1:E38" totalsRowCount="1" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Tabel2" headerRowCount="1" id="1" name="Tabel2" ref="A1:E38" tableBorderDxfId="47" totalsRowBorderDxfId="46" totalsRowCount="1">
   <autoFilter ref="A1:E37"/>
   <sortState ref="A2:E37">
     <sortCondition ref="A1:A37"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" name="WiGLE mean error (km)" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="3" name="LocationAPI without RSSI mean error (km)" totalsRowFunction="average" totalsRowDxfId="39" dataCellStyle="Goed"/>
-    <tableColumn id="4" name="WiGLE median error (km)" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowLabel="0,052" totalsRowDxfId="36"/>
+    <tableColumn dataDxfId="45" id="1" name="Location" totalsRowDxfId="44" totalsRowLabel="Mean"/>
+    <tableColumn dataDxfId="43" id="2" name="WiGLE mean error (km)" totalsRowDxfId="42" totalsRowFunction="average"/>
+    <tableColumn dataCellStyle="Goed" id="3" name="LocationAPI without RSSI mean error (km)" totalsRowDxfId="41" totalsRowFunction="average"/>
+    <tableColumn dataDxfId="40" id="4" name="WiGLE median error (km)" totalsRowDxfId="39" totalsRowFunction="average"/>
+    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowDxfId="38" totalsRowLabel="0,052"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showFirstColumn="1" showLastColumn="0" showRowStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel1" displayName="Tabel1" ref="A1:G38" totalsRowShown="0" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="37" displayName="Tabel1" headerRowCount="1" id="2" name="Tabel1" ref="A1:G38" totalsRowShown="0">
   <autoFilter ref="A1:G38"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="34"/>
-    <tableColumn id="2" name="WiGLE chance of BSSID match (%)" dataDxfId="33"/>
-    <tableColumn id="5" name="Mean" dataDxfId="32"/>
-    <tableColumn id="3" name="WiGLE 2 BSSIDs not found (%)" dataDxfId="31"/>
-    <tableColumn id="6" name="Mean2" dataDxfId="30" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" name="LocationAPI 2 BSSIDs not found (%)" dataDxfId="29"/>
-    <tableColumn id="7" name="Mean3" dataDxfId="28"/>
+    <tableColumn dataDxfId="36" id="1" name="Location"/>
+    <tableColumn dataDxfId="35" id="2" name="WiGLE chance of BSSID match (%)"/>
+    <tableColumn dataDxfId="34" id="5" name="Mean"/>
+    <tableColumn dataDxfId="33" id="3" name="WiGLE 2 BSSIDs not found (%)"/>
+    <tableColumn dataCellStyle="60% - Accent6" dataDxfId="32" id="6" name="Mean2"/>
+    <tableColumn dataDxfId="31" id="4" name="LocationAPI 2 BSSIDs not found (%)"/>
+    <tableColumn dataDxfId="30" id="7" name="Mean3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showFirstColumn="1" showLastColumn="0" showRowStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel4" displayName="Tabel4" ref="A1:C38" totalsRowCount="1" headerRowDxfId="26" totalsRowDxfId="23" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Tabel4" headerRowBorderDxfId="27" headerRowCount="1" headerRowDxfId="28" id="3" name="Tabel4" ref="A1:C38" tableBorderDxfId="26" totalsRowBorderDxfId="24" totalsRowCount="1" totalsRowDxfId="25">
   <autoFilter ref="A1:C37"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" name="WiGLE chance of corrupt BSSID (%)" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" name="LocationAPI chance of corrupt BSSID (%)" dataDxfId="17"/>
+    <tableColumn dataDxfId="23" id="1" name="Location" totalsRowDxfId="22" totalsRowLabel="Mean"/>
+    <tableColumn dataDxfId="21" id="2" name="WiGLE chance of corrupt BSSID (%)" totalsRowDxfId="20" totalsRowFunction="average"/>
+    <tableColumn dataDxfId="0" id="3" name="LocationAPI chance of corrupt BSSID (%)" totalsRowDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel3" displayName="Tabel3" ref="A1:E38" totalsRowCount="1" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="13" displayName="Tabel3" headerRowBorderDxfId="14" headerRowCount="1" headerRowDxfId="15" id="4" name="Tabel3" ref="A1:E38" totalsRowCount="1">
   <autoFilter ref="A1:E37"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="LocationAPI with RSSI mean error (km)" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" totalsRowCellStyle="Neutraal"/>
-    <tableColumn id="3" name="LocationAPI without RSSI mean error (km)" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4" totalsRowCellStyle="Neutraal"/>
-    <tableColumn id="4" name="LocationAPI with RSSI median error (km)" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2" totalsRowCellStyle="Neutraal"/>
-    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0" totalsRowCellStyle="Neutraal"/>
+    <tableColumn dataDxfId="12" id="1" name="Location" totalsRowDxfId="11" totalsRowLabel="Mean"/>
+    <tableColumn dataDxfId="10" id="2" name="LocationAPI with RSSI mean error (km)" totalsRowCellStyle="Neutraal" totalsRowDxfId="9" totalsRowFunction="average"/>
+    <tableColumn dataDxfId="8" id="3" name="LocationAPI without RSSI mean error (km)" totalsRowCellStyle="Neutraal" totalsRowDxfId="7" totalsRowFunction="average"/>
+    <tableColumn dataDxfId="6" id="4" name="LocationAPI with RSSI median error (km)" totalsRowCellStyle="Neutraal" totalsRowDxfId="5" totalsRowFunction="average"/>
+    <tableColumn dataDxfId="4" id="5" name="LocationAPI without RSSI median error (km)" totalsRowCellStyle="Neutraal" totalsRowDxfId="3" totalsRowFunction="average"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -2078,28 +2141,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="11" width="10.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="11" width="23"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="11" width="39.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="24.6640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="41"/>
+    <col customWidth="1" max="6" min="6" style="11" width="4.88671875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="21.109375"/>
+    <col customWidth="1" max="8" min="8" style="11" width="15.77734375"/>
+    <col customWidth="1" max="9" min="9" style="11" width="15.5546875"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="11" width="12.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2116,643 +2183,643 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>3.7590432354985513E-2</v>
-      </c>
-      <c r="C2" s="12">
-        <v>546.38786479147495</v>
-      </c>
-      <c r="D2" s="9">
-        <v>3.0738807533328132E-2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2.2963518229667992E-2</v>
+      <c r="B2" s="8" t="n">
+        <v>0.03759043235498551</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>546.387864791475</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0.03073880753332813</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.02296351822966799</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>7.4426096909835385E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>6.7508700279675579E-2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>7.2476753635504682E-2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>5.8544262287531769E-2</v>
-      </c>
-      <c r="F3" s="47"/>
+      <c r="B3" s="9" t="n">
+        <v>0.07442609690983538</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.06750870027967558</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0.07247675363550468</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.05854426228753177</v>
+      </c>
+      <c r="F3" s="43" t="n"/>
       <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.32707245868565038</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.31081984144760638</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.31888055130384502</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.30805396715219591</v>
+      <c r="B4" s="9" t="n">
+        <v>0.3270724586856504</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.3108198414476064</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0.318880551303845</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.3080539671521959</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>9.7701006224538617E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6.7684447273782491E-2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>7.5936446941534314E-2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6.4929687360808092E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="B5" s="9" t="n">
+        <v>0.09770100622453862</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.06768444727378249</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.07593644694153431</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.06492968736080809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>6.1332130204720787</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2.2467670715647552</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="10" t="n">
+        <v>6.133213020472079</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>2.246767071564755</v>
+      </c>
+      <c r="D6" s="9" t="n">
         <v>0.1949316099614547</v>
       </c>
-      <c r="E6" s="6">
-        <v>2.73776840170065E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="E6" s="6" t="n">
+        <v>0.0273776840170065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>7.0426709995126693E-2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.5458090292626001E-2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5.6416863901586893E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.5691085358153091E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="B7" s="9" t="n">
+        <v>0.07042670999512669</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.015458090292626</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0.05641686390158689</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01569108535815309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>4.1211554446353077E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.579172889491679E-2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>3.6942093762085043E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2.270711644424948E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="B8" s="9" t="n">
+        <v>0.04121155444635308</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.02579172889491679</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0.03694209376208504</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.02270711644424948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="10" t="n">
         <v>101.2827808614485</v>
       </c>
-      <c r="C9" s="6">
-        <v>4.2604164317743352E-2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>4.5052321714515411E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3.710694621264924E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="C9" s="6" t="n">
+        <v>0.04260416431774335</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0.04505232171451541</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.03710694621264924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
-        <v>0.20006798622189581</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="9" t="n">
+        <v>0.2000679862218958</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>0.1630582383899318</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="9" t="n">
         <v>0.1951507675916577</v>
       </c>
-      <c r="E10" s="6">
-        <v>0.16233527625047309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="E10" s="6" t="n">
+        <v>0.1623352762504731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
-        <v>3.8167686134378903E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3.6925145765380543E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3.1564725522547153E-2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3.2558574752882707E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="B11" s="9" t="n">
+        <v>0.0381676861343789</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.03692514576538054</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>0.03156472552254715</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>0.03255857475288271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
-        <v>8.5587649002947214E-2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6.4277820153357132E-2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>8.0818818898087535E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>6.1840837056184733E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="B12" s="9" t="n">
+        <v>0.08558764900294721</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0.06427782015335713</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0.08081881889808754</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.06184083705618473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
-        <v>0.58506804871623663</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4.5296107161432078E-2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>6.2408032212477461E-2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3.6608694278261328E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="B13" s="9" t="n">
+        <v>0.5850680487162366</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.04529610716143208</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0.06240803221247746</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03660869427826133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <v>0.37385704082918381</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1.9077187438057179</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.11581470853306371</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5.5727207882154878E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="B14" s="8" t="n">
+        <v>0.3738570408291838</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>1.907718743805718</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0.1158147085330637</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.05572720788215488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="10" t="n">
         <v>4.030056436367393</v>
       </c>
-      <c r="C15" s="6">
-        <v>2.3659057236574479E-2</v>
-      </c>
-      <c r="D15" s="9">
-        <v>3.8201579489797848E-2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.0758705629549509E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="C15" s="6" t="n">
+        <v>0.02365905723657448</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0.03820157948979785</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02075870562954951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
-        <v>8.96983297560488E-2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3.893424249758428E-2</v>
-      </c>
-      <c r="D16" s="9">
-        <v>4.636551640426511E-2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3.6557797618095043E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="B16" s="9" t="n">
+        <v>0.0896983297560488</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0.03893424249758428</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0.04636551640426511</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.03655779761809504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
-        <v>5.383004940191146E-2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4.8740845352458151E-2</v>
-      </c>
-      <c r="D17" s="9">
-        <v>4.6125099591910489E-2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3.883072403776161E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="B17" s="9" t="n">
+        <v>0.05383004940191146</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.04874084535245815</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0.04612509959191049</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.03883072403776161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
-        <v>6.5971332500345786E-2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4.8933393131479527E-2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>6.3629135804826223E-2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.4653914860836197E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="B18" s="9" t="n">
+        <v>0.06597133250034579</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.04893339313147953</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0.06362913580482622</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.0446539148608362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="9" t="n">
         <v>0.1001653949901381</v>
       </c>
-      <c r="C19" s="6">
-        <v>6.1523920674473327E-2</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.10361317577604739</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5.0269067311446723E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="C19" s="6" t="n">
+        <v>0.06152392067447333</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.1036131757760474</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.05026906731144672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="10" t="n">
         <v>5.518708112200847</v>
       </c>
-      <c r="C20" s="6">
-        <v>4.3257634327963798E-2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>8.2320468499708588E-2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.4336515176840202E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="C20" s="6" t="n">
+        <v>0.0432576343279638</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.08232046849970859</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.0443365151768402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
-        <v>0.18055989344133819</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3.7930646256254898E-2</v>
-      </c>
-      <c r="D21" s="9">
-        <v>4.8359788518462579E-2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.8742163613464201E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="B21" s="9" t="n">
+        <v>0.1805598934413382</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.0379306462562549</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.04835978851846258</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.0287421636134642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
-        <v>8.8151693771193557E-2</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3.8610859221155432E-2</v>
-      </c>
-      <c r="D22" s="9">
-        <v>9.0254839066463644E-2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3.3334472749350988E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="B22" s="9" t="n">
+        <v>0.08815169377119356</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.03861085922115543</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.09025483906646364</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.03333447274935099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
-        <v>4.176111638258713E-2</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1.4510001727621571</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3.1654867358002443E-2</v>
-      </c>
-      <c r="E23" s="13">
-        <v>3.6947996248945639E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="B23" s="8" t="n">
+        <v>0.04176111638258713</v>
+      </c>
+      <c r="C23" s="12" t="n">
+        <v>1.451000172762157</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>0.03165486735800244</v>
+      </c>
+      <c r="E23" s="13" t="n">
+        <v>0.03694799624894564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
-        <v>4.5490676678522286</v>
-      </c>
-      <c r="C24" s="6">
-        <v>8.6846575250509331E-2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>4.5117062614575029E-2</v>
-      </c>
-      <c r="E24" s="13">
-        <v>8.1037218864693797E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="B24" s="10" t="n">
+        <v>4.549067667852229</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.08684657525050933</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>0.04511706261457503</v>
+      </c>
+      <c r="E24" s="13" t="n">
+        <v>0.0810372188646938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
-        <v>0.13602660094608821</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="8" t="n">
+        <v>0.1360266009460882</v>
+      </c>
+      <c r="C25" s="12" t="n">
         <v>10.2055248780983</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="9" t="n">
         <v>0.1590373334995305</v>
       </c>
-      <c r="E25" s="6">
-        <v>8.7838087348634006E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="E25" s="6" t="n">
+        <v>0.08783808734863401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
-        <v>1.4454481662932679E-2</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1.965581555301946E-2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1.1978696207169759E-2</v>
-      </c>
-      <c r="E26" s="13">
-        <v>1.7671811392270621E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="B26" s="8" t="n">
+        <v>0.01445448166293268</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>0.01965581555301946</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>0.01197869620716976</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>0.01767181139227062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="9">
-        <v>7.0389986956859427E-2</v>
-      </c>
-      <c r="C27" s="6">
-        <v>4.7616282868674489E-2</v>
-      </c>
-      <c r="D27" s="9">
-        <v>5.3732315989467462E-2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>4.3173697986620803E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="B27" s="9" t="n">
+        <v>0.07038998695685943</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.04761628286867449</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.05373231598946746</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.0431736979866208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
-        <v>4.599088272619975E-2</v>
-      </c>
-      <c r="C28" s="13">
-        <v>4.8338039186879282E-2</v>
-      </c>
-      <c r="D28" s="9">
-        <v>4.5295386907854347E-2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4.2009666844848061E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="B28" s="8" t="n">
+        <v>0.04599088272619975</v>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>0.04833803918687928</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0.04529538690785435</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.04200966684484806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
-        <v>5.1760455310780197E-2</v>
-      </c>
-      <c r="C29" s="6">
-        <v>5.1441372574987668E-2</v>
-      </c>
-      <c r="D29" s="9">
-        <v>4.9102693140546279E-2</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4.840450380244337E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="B29" s="9" t="n">
+        <v>0.0517604553107802</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.05144137257498767</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0.04910269314054628</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.04840450380244337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
-        <v>99.830594106342787</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.27196085285516208</v>
-      </c>
-      <c r="D30" s="9">
-        <v>6.9753868055817528E-2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>4.4409305118097139E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="B30" s="10" t="n">
+        <v>99.83059410634279</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.2719608528551621</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0.06975386805581753</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.04440930511809714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
-        <v>1.3797875063140901</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2.540145694882423E-2</v>
-      </c>
-      <c r="D31" s="9">
-        <v>2.950524127112784E-2</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2.2945301714554809E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="B31" s="10" t="n">
+        <v>1.37978750631409</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.02540145694882423</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0.02950524127112784</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.02294530171455481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
-        <v>0.10314431239302289</v>
-      </c>
-      <c r="C32" s="12">
-        <v>6.5338109722380606</v>
-      </c>
-      <c r="D32" s="9">
-        <v>8.7158800827453226E-2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>3.6810921495245737E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="B32" s="8" t="n">
+        <v>0.1031443123930229</v>
+      </c>
+      <c r="C32" s="12" t="n">
+        <v>6.533810972238061</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.08715880082745323</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.03681092149524574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="9" t="n">
         <v>0.3612817649570349</v>
       </c>
-      <c r="C33" s="6">
-        <v>0.12089671764559989</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0.27558630223922309</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="C33" s="6" t="n">
+        <v>0.1208967176455999</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.2755863022392231</v>
+      </c>
+      <c r="E33" s="6" t="n">
         <v>0.1054239517201123</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="9" t="n">
         <v>0.1207229841833322</v>
       </c>
-      <c r="C34" s="6">
-        <v>4.4541066152575998E-2</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0.10669396074352749</v>
-      </c>
-      <c r="E34" s="6">
-        <v>3.796387400858528E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="C34" s="6" t="n">
+        <v>0.044541066152576</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.1066939607435275</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0.03796387400858528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="9">
-        <v>0.40032558329095091</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2.5581608712796501E-2</v>
-      </c>
-      <c r="D35" s="9">
-        <v>6.6935992537746181E-2</v>
-      </c>
-      <c r="E35" s="6">
-        <v>2.1730259127721412E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="B35" s="9" t="n">
+        <v>0.4003255832909509</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>0.0255816087127965</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.06693599253774618</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0.02173025912772141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="9">
-        <v>6.3797137457993161E-2</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1.539060874652811E-2</v>
-      </c>
-      <c r="D36" s="9">
-        <v>5.8202950075251281E-2</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1.6589648080492361E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="B36" s="9" t="n">
+        <v>0.06379713745799316</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>0.01539060874652811</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.05820295007525128</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0.01658964808049236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="9">
-        <v>0.37959112269555439</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2.1920824388186742E-2</v>
-      </c>
-      <c r="D37" s="9">
-        <v>4.0548445655529862E-2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1.1002763469003101E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="n">
+        <v>0.3795911226955544</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.02192082438818674</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.04054844565552986</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.0110027634690031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="35">
         <f>SUBTOTAL(101,Tabel2[WiGLE mean error (km)])</f>
-        <v>6.3061946528706496</v>
+        <v/>
       </c>
       <c r="C38" s="15">
         <f>SUBTOTAL(101,Tabel2[LocationAPI without RSSI mean error (km)])</f>
-        <v>15.852591464819502</v>
+        <v/>
       </c>
       <c r="D38" s="16">
         <f>SUBTOTAL(101,Tabel2[WiGLE median error (km)])</f>
-        <v>8.239738949405534E-2</v>
+        <v/>
       </c>
       <c r="E38" s="36" t="s">
         <v>9</v>
@@ -2760,62 +2827,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C37">
-    <cfRule type="cellIs" dxfId="56" priority="13" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="13" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="cellIs" dxfId="55" priority="12" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="12" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="11" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="9" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="8" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="7" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="6" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="5" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D37">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="4" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="2" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="1" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2823,25 +2890,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B38"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A1" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="11" width="10.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="11" width="32.109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="11" width="8.109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="33.5546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="9.109375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="33.5546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2864,857 +2935,857 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>36.666666666666657</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="17" t="n">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="C2" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="19" t="n">
         <v>12.64367816091954</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F2" s="20">
-        <v>20.919540229885062</v>
-      </c>
-      <c r="G2" s="17">
+      <c r="F2" s="20" t="n">
+        <v>20.91954022988506</v>
+      </c>
+      <c r="G2" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="17" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="C3" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D3" s="19">
-        <v>3.9215686274509798</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="D3" s="19" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="E3" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F3" s="20">
-        <v>13.725490196078431</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="F3" s="20" t="n">
+        <v>13.72549019607843</v>
+      </c>
+      <c r="G3" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="17" t="n">
         <v>18.18181818181818</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D4" s="19">
-        <v>2.8409090909090908</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="19" t="n">
+        <v>2.840909090909091</v>
+      </c>
+      <c r="E4" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F4" s="20">
-        <v>5.3030303030303028</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="F4" s="20" t="n">
+        <v>5.303030303030303</v>
+      </c>
+      <c r="G4" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="B5" s="17" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="C5" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D5" s="19">
-        <v>3.9215686274509798</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="19" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="E5" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F5" s="20">
-        <v>13.725490196078431</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="F5" s="20" t="n">
+        <v>13.72549019607843</v>
+      </c>
+      <c r="G5" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>42.622950819672127</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" s="17" t="n">
+        <v>42.62295081967213</v>
+      </c>
+      <c r="C6" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D6" s="19">
-        <v>17.759562841530059</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="19" t="n">
+        <v>17.75956284153006</v>
+      </c>
+      <c r="E6" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F6" s="20">
-        <v>23.770491803278691</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="20" t="n">
+        <v>23.77049180327869</v>
+      </c>
+      <c r="G6" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="17" t="n">
         <v>78.94736842105263</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D7" s="20">
-        <v>61.403508771929829</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="20" t="n">
+        <v>61.40350877192983</v>
+      </c>
+      <c r="E7" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="19" t="n">
         <v>16.37426900584795</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="17" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="C8" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D8" s="19">
-        <v>3.9215686274509798</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="19" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="E8" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F8" s="19">
-        <v>3.9215686274509798</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="F8" s="19" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="G8" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="20" t="n">
         <v>23.80952380952381</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="19" t="n">
         <v>4.329004329004329</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="B11" s="17" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="C11" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="F11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D12" s="19">
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="19" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="E12" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F12" s="20">
-        <v>24.074074074074069</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="F12" s="20" t="n">
+        <v>24.07407407407407</v>
+      </c>
+      <c r="G12" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D13" s="20">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="20" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="E13" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="19" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D14" s="20">
-        <v>3.1578947368421049</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="20" t="n">
+        <v>3.157894736842105</v>
+      </c>
+      <c r="E14" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F14" s="19">
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="F14" s="19" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="G14" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="17" t="n">
         <v>40.54054054054054</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D15" s="20">
-        <v>15.765765765765771</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="20" t="n">
+        <v>15.76576576576577</v>
+      </c>
+      <c r="E15" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="19" t="n">
         <v>6.756756756756757</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D16" s="19">
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="19" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E16" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F16" s="20">
-        <v>14.736842105263159</v>
-      </c>
-      <c r="G16" s="17">
+      <c r="F16" s="20" t="n">
+        <v>14.73684210526316</v>
+      </c>
+      <c r="G16" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="B17" s="17" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="C17" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D17" s="19">
-        <v>0.36231884057971009</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="D17" s="19" t="n">
+        <v>0.3623188405797101</v>
+      </c>
+      <c r="E17" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F17" s="20">
-        <v>32.971014492753618</v>
-      </c>
-      <c r="G17" s="17">
+      <c r="F17" s="20" t="n">
+        <v>32.97101449275362</v>
+      </c>
+      <c r="G17" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B18" s="17" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="C18" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D18" s="19">
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D18" s="19" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="E18" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="B19" s="17" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="C19" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="20" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
+      <c r="F19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="17" t="n">
         <v>72.41379310344827</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D20" s="20">
-        <v>51.724137931034477</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="D20" s="20" t="n">
+        <v>51.72413793103448</v>
+      </c>
+      <c r="E20" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F20" s="19">
-        <v>16.256157635467979</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="F20" s="19" t="n">
+        <v>16.25615763546798</v>
+      </c>
+      <c r="G20" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="20" t="n">
         <v>23.80952380952381</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F21" s="19">
-        <v>6.4935064935064926</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="F21" s="19" t="n">
+        <v>6.493506493506493</v>
+      </c>
+      <c r="G21" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" s="17" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="C22" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D22" s="19">
-        <v>0.65359477124183007</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="19" t="n">
+        <v>0.6535947712418301</v>
+      </c>
+      <c r="E22" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F22" s="20">
-        <v>6.5359477124183014</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="F22" s="20" t="n">
+        <v>6.535947712418301</v>
+      </c>
+      <c r="G22" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
-        <v>18.421052631578949</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" s="17" t="n">
+        <v>18.42105263157895</v>
+      </c>
+      <c r="C23" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D23" s="19">
-        <v>2.9871977240398291</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="19" t="n">
+        <v>2.987197724039829</v>
+      </c>
+      <c r="E23" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F23" s="20">
-        <v>21.763869132290189</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="F23" s="20" t="n">
+        <v>21.76386913229019</v>
+      </c>
+      <c r="G23" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="17" t="n">
         <v>56</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D24" s="20">
-        <v>30.333333333333339</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="D24" s="20" t="n">
+        <v>30.33333333333334</v>
+      </c>
+      <c r="E24" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="17" t="n">
         <v>23.07692307692308</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D25" s="19">
-        <v>3.8461538461538458</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="19" t="n">
+        <v>3.846153846153846</v>
+      </c>
+      <c r="E25" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F25" s="20">
-        <v>35.897435897435898</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="F25" s="20" t="n">
+        <v>35.8974358974359</v>
+      </c>
+      <c r="G25" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="B26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D26" s="19">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="D26" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F26" s="20">
-        <v>7.6923076923076934</v>
-      </c>
-      <c r="G26" s="17">
+      <c r="F26" s="20" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="G26" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="D27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F27" s="19">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="F27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="17">
-        <v>7.6923076923076934</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B28" s="17" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="C28" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="D28" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F28" s="20">
-        <v>1.2820512820512819</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="F28" s="20" t="n">
+        <v>1.282051282051282</v>
+      </c>
+      <c r="G28" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="17" t="n">
         <v>16.12903225806452</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="19" t="n">
         <v>2.150537634408602</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="20" t="n">
         <v>3.225806451612903</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="17" t="n">
         <v>36.84210526315789</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="20" t="n">
         <v>12.28070175438596</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F30" s="19">
-        <v>3.9215686274509798</v>
-      </c>
-      <c r="G30" s="17">
+      <c r="F30" s="19" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="G30" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
-        <v>56.756756756756758</v>
-      </c>
-      <c r="C31" s="17">
+      <c r="B31" s="17" t="n">
+        <v>56.75675675675676</v>
+      </c>
+      <c r="C31" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D31" s="20">
-        <v>31.531531531531531</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="D31" s="20" t="n">
+        <v>31.53153153153153</v>
+      </c>
+      <c r="E31" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F31" s="19">
-        <v>3.1531531531531529</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="F31" s="19" t="n">
+        <v>3.153153153153153</v>
+      </c>
+      <c r="G31" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="17">
-        <v>30.434782608695659</v>
-      </c>
-      <c r="C32" s="17">
+      <c r="B32" s="17" t="n">
+        <v>30.43478260869566</v>
+      </c>
+      <c r="C32" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D32" s="20">
-        <v>8.3003952569169961</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="D32" s="20" t="n">
+        <v>8.300395256916996</v>
+      </c>
+      <c r="E32" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F32" s="19">
-        <v>1.1857707509881421</v>
-      </c>
-      <c r="G32" s="17">
+      <c r="F32" s="19" t="n">
+        <v>1.185770750988142</v>
+      </c>
+      <c r="G32" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
-        <v>54.166666666666657</v>
-      </c>
-      <c r="C33" s="17">
+      <c r="B33" s="17" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="C33" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D33" s="20">
-        <v>28.260869565217391</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="D33" s="20" t="n">
+        <v>28.26086956521739</v>
+      </c>
+      <c r="E33" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F33" s="19">
-        <v>23.913043478260871</v>
-      </c>
-      <c r="G33" s="17">
+      <c r="F33" s="19" t="n">
+        <v>23.91304347826087</v>
+      </c>
+      <c r="G33" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
-        <v>41.666666666666671</v>
-      </c>
-      <c r="C34" s="17">
+      <c r="B34" s="17" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="C34" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D34" s="19">
-        <v>16.304347826086961</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="D34" s="19" t="n">
+        <v>16.30434782608696</v>
+      </c>
+      <c r="E34" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F34" s="20">
-        <v>19.927536231884059</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="F34" s="20" t="n">
+        <v>19.92753623188406</v>
+      </c>
+      <c r="G34" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
-        <v>65.714285714285708</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="B35" s="17" t="n">
+        <v>65.71428571428571</v>
+      </c>
+      <c r="C35" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D35" s="20">
-        <v>42.521008403361343</v>
-      </c>
-      <c r="E35" s="17">
+      <c r="D35" s="20" t="n">
+        <v>42.52100840336134</v>
+      </c>
+      <c r="E35" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F35" s="19">
-        <v>22.857142857142861</v>
-      </c>
-      <c r="G35" s="17">
+      <c r="F35" s="19" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="G35" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
-        <v>42.857142857142847</v>
-      </c>
-      <c r="C36" s="17">
+      <c r="B36" s="17" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="C36" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D36" s="19">
-        <v>16.483516483516478</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="19" t="n">
+        <v>16.48351648351648</v>
+      </c>
+      <c r="E36" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="20" t="n">
         <v>30.76923076923077</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="17" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="17" t="n">
         <v>32.6</v>
       </c>
-      <c r="D37" s="19">
-        <v>0.95238095238095244</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="D37" s="19" t="n">
+        <v>0.9523809523809524</v>
+      </c>
+      <c r="E37" s="17" t="n">
         <v>13.2</v>
       </c>
-      <c r="F37" s="20">
-        <v>26.666666666666671</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="F37" s="20" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="G37" s="17" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="4">
         <f>AVERAGE(B2:B37)</f>
-        <v>32.571977149604514</v>
-      </c>
-      <c r="C38" s="18"/>
+        <v/>
+      </c>
+      <c r="C38" s="18" t="n"/>
       <c r="D38" s="21">
         <f>AVERAGE(D2:D37)</f>
-        <v>13.215575447229485</v>
-      </c>
-      <c r="E38" s="18"/>
+        <v/>
+      </c>
+      <c r="E38" s="18" t="n"/>
       <c r="F38" s="4">
         <f>AVERAGE(F2:F37)</f>
-        <v>12.537270816875289</v>
-      </c>
-      <c r="G38" s="17"/>
+        <v/>
+      </c>
+      <c r="G38" s="17" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3722,22 +3793,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="11" width="10.109375"/>
+    <col customWidth="1" max="2" min="2" style="11" width="32.109375"/>
+    <col customWidth="1" max="3" min="3" style="11" width="36.88671875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="37.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="15" r="1" s="11" spans="1:5" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -3748,350 +3823,430 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row customHeight="1" ht="15" r="2" s="11" spans="1:5" thickTop="1">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="49">
-        <v>0</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="E2" s="48" t="s">
+      <c r="B2" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47" t="n">
+        <v>6.395348837209303</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="49">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="49">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="49">
-        <v>0</v>
-      </c>
-      <c r="C5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B5" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="49">
-        <v>7.9069767441860463</v>
-      </c>
-      <c r="C6" s="44"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B6" s="45" t="n">
+        <v>7.906976744186046</v>
+      </c>
+      <c r="C6" s="48" t="n">
+        <v>2.437275985663083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="49">
-        <v>0</v>
-      </c>
-      <c r="C7" s="44"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="49">
-        <v>0</v>
-      </c>
-      <c r="C8" s="44"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="49">
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="C9" s="44"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" s="45" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="C9" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="49">
-        <v>0</v>
-      </c>
-      <c r="C10" s="44"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="49">
-        <v>0</v>
-      </c>
-      <c r="C11" s="44"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B11" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="49">
-        <v>0</v>
-      </c>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B12" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="49">
-        <v>25.714285714285712</v>
-      </c>
-      <c r="C13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B13" s="45" t="n">
+        <v>25.71428571428571</v>
+      </c>
+      <c r="C13" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="49">
-        <v>28.804347826086961</v>
-      </c>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B14" s="45" t="n">
+        <v>28.80434782608696</v>
+      </c>
+      <c r="C14" s="48" t="n">
+        <v>3.703703703703703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="45" t="n">
         <v>41.17647058823529</v>
       </c>
-      <c r="C15" s="44"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="C15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="49">
-        <v>1.0582010582010579</v>
-      </c>
-      <c r="C16" s="44"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B16" s="45" t="n">
+        <v>1.058201058201058</v>
+      </c>
+      <c r="C16" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="49">
-        <v>0</v>
-      </c>
-      <c r="C17" s="44"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B17" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="49">
-        <v>0</v>
-      </c>
-      <c r="C18" s="44"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B18" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="49">
-        <v>0</v>
-      </c>
-      <c r="C19" s="44"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="B19" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="49">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="C20" s="44"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="B20" s="45" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="C20" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="45" t="n">
         <v>14.20454545454546</v>
       </c>
-      <c r="C21" s="44"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="C21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="49">
-        <v>0</v>
-      </c>
-      <c r="C22" s="44"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B22" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="49">
-        <v>0</v>
-      </c>
-      <c r="C23" s="44"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B23" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="48" t="n">
+        <v>3.636363636363636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="45" t="n">
         <v>18.18181818181818</v>
       </c>
-      <c r="C24" s="44"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="C24" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="49">
-        <v>0</v>
-      </c>
-      <c r="C25" s="44"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="B25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="48" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="49">
-        <v>0</v>
-      </c>
-      <c r="C26" s="44"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="B26" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="49">
-        <v>0</v>
-      </c>
-      <c r="C27" s="44"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="B27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="49">
-        <v>0</v>
-      </c>
-      <c r="C28" s="44"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="B28" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="49">
-        <v>0</v>
-      </c>
-      <c r="C29" s="44"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="B29" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="49">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="C30" s="44"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="B30" s="45" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="C30" s="48" t="n">
+        <v>11.56462585034014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="49">
-        <v>7.8947368421052628</v>
-      </c>
-      <c r="C31" s="44"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="B31" s="45" t="n">
+        <v>7.894736842105263</v>
+      </c>
+      <c r="C31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="49">
-        <v>0</v>
-      </c>
-      <c r="C32" s="44"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="B32" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="48" t="n">
+        <v>5.600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="49">
-        <v>37.878787878787882</v>
-      </c>
-      <c r="C33" s="44"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="B33" s="45" t="n">
+        <v>37.87878787878788</v>
+      </c>
+      <c r="C33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="49">
-        <v>0</v>
-      </c>
-      <c r="C34" s="44"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="B34" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="49">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="C35" s="44"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="B35" s="45" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="C35" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="49">
-        <v>0</v>
-      </c>
-      <c r="C36" s="44"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="B36" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="40" t="n">
         <v>25.96153846153846</v>
       </c>
-      <c r="C37" s="46"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="42">
         <f>SUBTOTAL(101,Tabel4[WiGLE chance of corrupt BSSID (%)])</f>
-        <v>7.3747684849929733</v>
-      </c>
-      <c r="C38" s="43"/>
+        <v/>
+      </c>
+      <c r="C38" s="46" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B37">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="C2:C38">
+    <cfRule dxfId="2" operator="greaterThan" priority="1" type="cellIs">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4099,702 +4254,706 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="38.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="11" width="10.44140625"/>
+    <col customWidth="1" max="2" min="2" style="11" width="35.44140625"/>
+    <col customWidth="1" max="4" min="3" style="11" width="38.33203125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="41"/>
+    <col customWidth="1" max="6" min="6" style="11" width="19.33203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
-        <v>546.38786479147541</v>
-      </c>
-      <c r="C2" s="27">
-        <v>546.38786479147495</v>
-      </c>
-      <c r="D2" s="27">
-        <v>2.2963518229667992E-2</v>
-      </c>
-      <c r="E2" s="27">
-        <v>2.2963518229667992E-2</v>
+      <c r="B2" s="24" t="n">
+        <v>546.3878647914754</v>
+      </c>
+      <c r="C2" s="27" t="n">
+        <v>546.387864791475</v>
+      </c>
+      <c r="D2" s="27" t="n">
+        <v>0.02296351822966799</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <v>0.02296351822966799</v>
       </c>
       <c r="G2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="n">
+        <v>0.0665894538263475</v>
+      </c>
+      <c r="C3" s="28" t="n">
+        <v>0.06750870027967558</v>
+      </c>
+      <c r="D3" s="27" t="n">
+        <v>0.05854426228753177</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <v>0.05854426228753177</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="n">
+        <v>0.3108198414476064</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>0.3108198414476064</v>
+      </c>
+      <c r="D4" s="27" t="n">
+        <v>0.3080539671521959</v>
+      </c>
+      <c r="E4" s="27" t="n">
+        <v>0.3080539671521959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="n">
+        <v>0.0675349237985714</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>0.06768444727378249</v>
+      </c>
+      <c r="D5" s="28" t="n">
+        <v>0.06452852243770467</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>0.06492968736080809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="n">
+        <v>2.246767071564755</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>2.246767071564755</v>
+      </c>
+      <c r="D6" s="27" t="n">
+        <v>0.0273776840170065</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <v>0.0273776840170065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="n">
+        <v>0.01718146368137908</v>
+      </c>
+      <c r="C7" s="28" t="n">
+        <v>0.015458090292626</v>
+      </c>
+      <c r="D7" s="28" t="n">
+        <v>0.01311374968518231</v>
+      </c>
+      <c r="E7" s="28" t="n">
+        <v>0.01569108535815309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="n">
+        <v>0.02523377474158545</v>
+      </c>
+      <c r="C8" s="28" t="n">
+        <v>0.02579172889491679</v>
+      </c>
+      <c r="D8" s="27" t="n">
+        <v>0.02270711644424948</v>
+      </c>
+      <c r="E8" s="27" t="n">
+        <v>0.02270711644424948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>0.04260416431774335</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>0.04260416431774335</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>0.03710694621264924</v>
+      </c>
+      <c r="E9" s="27" t="n">
+        <v>0.03710694621264924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="n">
+        <v>0.16779120910127</v>
+      </c>
+      <c r="C10" s="28" t="n">
+        <v>0.1630582383899318</v>
+      </c>
+      <c r="D10" s="28" t="n">
+        <v>0.1729474331873634</v>
+      </c>
+      <c r="E10" s="28" t="n">
+        <v>0.1623352762504731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="n">
+        <v>0.0400558288904165</v>
+      </c>
+      <c r="C11" s="28" t="n">
+        <v>0.03692514576538054</v>
+      </c>
+      <c r="D11" s="28" t="n">
+        <v>0.03584762469763345</v>
+      </c>
+      <c r="E11" s="28" t="n">
+        <v>0.03255857475288271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="n">
+        <v>0.07763082770099827</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <v>0.06427782015335713</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <v>0.06298139971885676</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>0.06184083705618473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="n">
+        <v>0.04470462597681737</v>
+      </c>
+      <c r="C13" s="28" t="n">
+        <v>0.04529610716143208</v>
+      </c>
+      <c r="D13" s="28" t="n">
+        <v>0.04459708155215585</v>
+      </c>
+      <c r="E13" s="28" t="n">
+        <v>0.03660869427826133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>1.907718743805718</v>
+      </c>
+      <c r="C14" s="27" t="n">
+        <v>1.907718743805718</v>
+      </c>
+      <c r="D14" s="27" t="n">
+        <v>0.05572720788215488</v>
+      </c>
+      <c r="E14" s="27" t="n">
+        <v>0.05572720788215488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>0.02365905723657448</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>0.02365905723657448</v>
+      </c>
+      <c r="D15" s="27" t="n">
+        <v>0.02075870562954951</v>
+      </c>
+      <c r="E15" s="27" t="n">
+        <v>0.02075870562954951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="n">
+        <v>0.0507763231914183</v>
+      </c>
+      <c r="C16" s="28" t="n">
+        <v>0.03893424249758428</v>
+      </c>
+      <c r="D16" s="28" t="n">
+        <v>0.04838273587675065</v>
+      </c>
+      <c r="E16" s="28" t="n">
+        <v>0.03655779761809504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <v>0.04874084535245815</v>
+      </c>
+      <c r="C17" s="27" t="n">
+        <v>0.04874084535245815</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>0.03883072403776161</v>
+      </c>
+      <c r="E17" s="27" t="n">
+        <v>0.03883072403776161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="n">
+        <v>0.2189900515181394</v>
+      </c>
+      <c r="C18" s="28" t="n">
+        <v>0.04893339313147953</v>
+      </c>
+      <c r="D18" s="28" t="n">
+        <v>0.04358991946510065</v>
+      </c>
+      <c r="E18" s="28" t="n">
+        <v>0.0446539148608362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>0.06152392067447333</v>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>0.06152392067447333</v>
+      </c>
+      <c r="D19" s="27" t="n">
+        <v>0.05026906731144672</v>
+      </c>
+      <c r="E19" s="27" t="n">
+        <v>0.05026906731144672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="n">
+        <v>0.04339980842218728</v>
+      </c>
+      <c r="C20" s="28" t="n">
+        <v>0.0432576343279638</v>
+      </c>
+      <c r="D20" s="27" t="n">
+        <v>0.0443365151768402</v>
+      </c>
+      <c r="E20" s="27" t="n">
+        <v>0.0443365151768402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25">
-        <v>6.6589453826347497E-2</v>
-      </c>
-      <c r="C3" s="28">
-        <v>6.7508700279675579E-2</v>
-      </c>
-      <c r="D3" s="27">
-        <v>5.8544262287531769E-2</v>
-      </c>
-      <c r="E3" s="27">
-        <v>5.8544262287531769E-2</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="B21" s="25" t="n">
+        <v>0.03857795614786459</v>
+      </c>
+      <c r="C21" s="28" t="n">
+        <v>0.0379306462562549</v>
+      </c>
+      <c r="D21" s="27" t="n">
+        <v>0.0287421636134642</v>
+      </c>
+      <c r="E21" s="27" t="n">
+        <v>0.0287421636134642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24">
-        <v>0.31081984144760638</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.31081984144760638</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.30805396715219591</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.30805396715219591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25">
-        <v>6.75349237985714E-2</v>
-      </c>
-      <c r="C5" s="28">
-        <v>6.7684447273782491E-2</v>
-      </c>
-      <c r="D5" s="28">
-        <v>6.4528522437704669E-2</v>
-      </c>
-      <c r="E5" s="28">
-        <v>6.4929687360808092E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24">
-        <v>2.2467670715647552</v>
-      </c>
-      <c r="C6" s="27">
-        <v>2.2467670715647552</v>
-      </c>
-      <c r="D6" s="27">
-        <v>2.73776840170065E-2</v>
-      </c>
-      <c r="E6" s="27">
-        <v>2.73776840170065E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25">
-        <v>1.7181463681379079E-2</v>
-      </c>
-      <c r="C7" s="28">
-        <v>1.5458090292626001E-2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>1.3113749685182309E-2</v>
-      </c>
-      <c r="E7" s="28">
-        <v>1.5691085358153091E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25">
-        <v>2.523377474158545E-2</v>
-      </c>
-      <c r="C8" s="28">
-        <v>2.579172889491679E-2</v>
-      </c>
-      <c r="D8" s="27">
-        <v>2.270711644424948E-2</v>
-      </c>
-      <c r="E8" s="27">
-        <v>2.270711644424948E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24">
-        <v>4.2604164317743352E-2</v>
-      </c>
-      <c r="C9" s="27">
-        <v>4.2604164317743352E-2</v>
-      </c>
-      <c r="D9" s="27">
-        <v>3.710694621264924E-2</v>
-      </c>
-      <c r="E9" s="27">
-        <v>3.710694621264924E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0.16779120910126999</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0.1630582383899318</v>
-      </c>
-      <c r="D10" s="28">
-        <v>0.17294743318736339</v>
-      </c>
-      <c r="E10" s="28">
-        <v>0.16233527625047309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25">
-        <v>4.0055828890416499E-2</v>
-      </c>
-      <c r="C11" s="28">
-        <v>3.6925145765380543E-2</v>
-      </c>
-      <c r="D11" s="28">
-        <v>3.5847624697633453E-2</v>
-      </c>
-      <c r="E11" s="28">
-        <v>3.2558574752882707E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25">
-        <v>7.7630827700998273E-2</v>
-      </c>
-      <c r="C12" s="28">
-        <v>6.4277820153357132E-2</v>
-      </c>
-      <c r="D12" s="28">
-        <v>6.2981399718856759E-2</v>
-      </c>
-      <c r="E12" s="28">
-        <v>6.1840837056184733E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25">
-        <v>4.4704625976817368E-2</v>
-      </c>
-      <c r="C13" s="28">
-        <v>4.5296107161432078E-2</v>
-      </c>
-      <c r="D13" s="28">
-        <v>4.4597081552155853E-2</v>
-      </c>
-      <c r="E13" s="28">
-        <v>3.6608694278261328E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24">
-        <v>1.9077187438057179</v>
-      </c>
-      <c r="C14" s="27">
-        <v>1.9077187438057179</v>
-      </c>
-      <c r="D14" s="27">
-        <v>5.5727207882154878E-2</v>
-      </c>
-      <c r="E14" s="27">
-        <v>5.5727207882154878E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24">
-        <v>2.3659057236574479E-2</v>
-      </c>
-      <c r="C15" s="27">
-        <v>2.3659057236574479E-2</v>
-      </c>
-      <c r="D15" s="27">
-        <v>2.0758705629549509E-2</v>
-      </c>
-      <c r="E15" s="27">
-        <v>2.0758705629549509E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25">
-        <v>5.0776323191418303E-2</v>
-      </c>
-      <c r="C16" s="28">
-        <v>3.893424249758428E-2</v>
-      </c>
-      <c r="D16" s="28">
-        <v>4.8382735876750647E-2</v>
-      </c>
-      <c r="E16" s="28">
-        <v>3.6557797618095043E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24">
-        <v>4.8740845352458151E-2</v>
-      </c>
-      <c r="C17" s="27">
-        <v>4.8740845352458151E-2</v>
-      </c>
-      <c r="D17" s="27">
-        <v>3.883072403776161E-2</v>
-      </c>
-      <c r="E17" s="27">
-        <v>3.883072403776161E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0.21899005151813941</v>
-      </c>
-      <c r="C18" s="28">
-        <v>4.8933393131479527E-2</v>
-      </c>
-      <c r="D18" s="28">
-        <v>4.358991946510065E-2</v>
-      </c>
-      <c r="E18" s="28">
-        <v>4.4653914860836197E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24">
-        <v>6.1523920674473327E-2</v>
-      </c>
-      <c r="C19" s="27">
-        <v>6.1523920674473327E-2</v>
-      </c>
-      <c r="D19" s="27">
-        <v>5.0269067311446723E-2</v>
-      </c>
-      <c r="E19" s="27">
-        <v>5.0269067311446723E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="25">
-        <v>4.3399808422187283E-2</v>
-      </c>
-      <c r="C20" s="28">
-        <v>4.3257634327963798E-2</v>
-      </c>
-      <c r="D20" s="27">
-        <v>4.4336515176840202E-2</v>
-      </c>
-      <c r="E20" s="27">
-        <v>4.4336515176840202E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="25">
-        <v>3.8577956147864592E-2</v>
-      </c>
-      <c r="C21" s="28">
-        <v>3.7930646256254898E-2</v>
-      </c>
-      <c r="D21" s="27">
-        <v>2.8742163613464201E-2</v>
-      </c>
-      <c r="E21" s="27">
-        <v>2.8742163613464201E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25">
-        <v>3.9541356031615189E-2</v>
-      </c>
-      <c r="C22" s="28">
-        <v>3.8610859221155432E-2</v>
-      </c>
-      <c r="D22" s="28">
-        <v>3.5628454750964662E-2</v>
-      </c>
-      <c r="E22" s="28">
-        <v>3.3334472749350988E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B22" s="25" t="n">
+        <v>0.03954135603161519</v>
+      </c>
+      <c r="C22" s="28" t="n">
+        <v>0.03861085922115543</v>
+      </c>
+      <c r="D22" s="28" t="n">
+        <v>0.03562845475096466</v>
+      </c>
+      <c r="E22" s="28" t="n">
+        <v>0.03333447274935099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="25">
-        <v>4.1108137227847541</v>
-      </c>
-      <c r="C23" s="28">
-        <v>1.4510001727621571</v>
-      </c>
-      <c r="D23" s="28">
-        <v>4.3063385848842832E-2</v>
-      </c>
-      <c r="E23" s="28">
-        <v>3.6947996248945639E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B23" s="25" t="n">
+        <v>4.110813722784754</v>
+      </c>
+      <c r="C23" s="28" t="n">
+        <v>1.451000172762157</v>
+      </c>
+      <c r="D23" s="28" t="n">
+        <v>0.04306338584884283</v>
+      </c>
+      <c r="E23" s="28" t="n">
+        <v>0.03694799624894564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="24">
-        <v>8.6846575250509331E-2</v>
-      </c>
-      <c r="C24" s="27">
-        <v>8.6846575250509331E-2</v>
-      </c>
-      <c r="D24" s="27">
-        <v>8.1037218864693797E-2</v>
-      </c>
-      <c r="E24" s="27">
-        <v>8.1037218864693797E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="B24" s="24" t="n">
+        <v>0.08684657525050933</v>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>0.08684657525050933</v>
+      </c>
+      <c r="D24" s="27" t="n">
+        <v>0.0810372188646938</v>
+      </c>
+      <c r="E24" s="27" t="n">
+        <v>0.0810372188646938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="24" t="n">
         <v>10.2055248780983</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="27" t="n">
         <v>10.2055248780983</v>
       </c>
-      <c r="D25" s="27">
-        <v>8.7838087348634006E-2</v>
-      </c>
-      <c r="E25" s="27">
-        <v>8.7838087348634006E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="D25" s="27" t="n">
+        <v>0.08783808734863401</v>
+      </c>
+      <c r="E25" s="27" t="n">
+        <v>0.08783808734863401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="24">
-        <v>1.965581555301946E-2</v>
-      </c>
-      <c r="C26" s="27">
-        <v>1.965581555301946E-2</v>
-      </c>
-      <c r="D26" s="27">
-        <v>1.7671811392270621E-2</v>
-      </c>
-      <c r="E26" s="27">
-        <v>1.7671811392270621E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="B26" s="24" t="n">
+        <v>0.01965581555301946</v>
+      </c>
+      <c r="C26" s="27" t="n">
+        <v>0.01965581555301946</v>
+      </c>
+      <c r="D26" s="27" t="n">
+        <v>0.01767181139227062</v>
+      </c>
+      <c r="E26" s="27" t="n">
+        <v>0.01767181139227062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="24">
-        <v>4.7616282868674489E-2</v>
-      </c>
-      <c r="C27" s="27">
-        <v>4.7616282868674489E-2</v>
-      </c>
-      <c r="D27" s="27">
-        <v>4.3173697986620803E-2</v>
-      </c>
-      <c r="E27" s="27">
-        <v>4.3173697986620803E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="B27" s="24" t="n">
+        <v>0.04761628286867449</v>
+      </c>
+      <c r="C27" s="27" t="n">
+        <v>0.04761628286867449</v>
+      </c>
+      <c r="D27" s="27" t="n">
+        <v>0.0431736979866208</v>
+      </c>
+      <c r="E27" s="27" t="n">
+        <v>0.0431736979866208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
-        <v>4.6439693993404037E-2</v>
-      </c>
-      <c r="C28" s="28">
-        <v>4.8338039186879282E-2</v>
-      </c>
-      <c r="D28" s="28">
-        <v>3.9782807177896902E-2</v>
-      </c>
-      <c r="E28" s="28">
-        <v>4.2009666844848061E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="B28" s="25" t="n">
+        <v>0.04643969399340404</v>
+      </c>
+      <c r="C28" s="28" t="n">
+        <v>0.04833803918687928</v>
+      </c>
+      <c r="D28" s="28" t="n">
+        <v>0.0397828071778969</v>
+      </c>
+      <c r="E28" s="28" t="n">
+        <v>0.04200966684484806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
-        <v>5.3188907899153801E-2</v>
-      </c>
-      <c r="C29" s="28">
-        <v>5.1441372574987668E-2</v>
-      </c>
-      <c r="D29" s="28">
-        <v>4.9081688292464259E-2</v>
-      </c>
-      <c r="E29" s="28">
-        <v>4.840450380244337E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="B29" s="25" t="n">
+        <v>0.0531889078991538</v>
+      </c>
+      <c r="C29" s="28" t="n">
+        <v>0.05144137257498767</v>
+      </c>
+      <c r="D29" s="28" t="n">
+        <v>0.04908168829246426</v>
+      </c>
+      <c r="E29" s="28" t="n">
+        <v>0.04840450380244337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="25" t="n">
         <v>0.2722447537588471</v>
       </c>
-      <c r="C30" s="28">
-        <v>0.27196085285516208</v>
-      </c>
-      <c r="D30" s="28">
-        <v>4.3665588408730027E-2</v>
-      </c>
-      <c r="E30" s="28">
-        <v>4.4409305118097139E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="C30" s="28" t="n">
+        <v>0.2719608528551621</v>
+      </c>
+      <c r="D30" s="28" t="n">
+        <v>0.04366558840873003</v>
+      </c>
+      <c r="E30" s="28" t="n">
+        <v>0.04440930511809714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="25">
-        <v>2.50015373576042E-2</v>
-      </c>
-      <c r="C31" s="28">
-        <v>2.540145694882423E-2</v>
-      </c>
-      <c r="D31" s="28">
-        <v>2.2248419911489559E-2</v>
-      </c>
-      <c r="E31" s="28">
-        <v>2.2945301714554809E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="B31" s="25" t="n">
+        <v>0.0250015373576042</v>
+      </c>
+      <c r="C31" s="28" t="n">
+        <v>0.02540145694882423</v>
+      </c>
+      <c r="D31" s="28" t="n">
+        <v>0.02224841991148956</v>
+      </c>
+      <c r="E31" s="28" t="n">
+        <v>0.02294530171455481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
-        <v>6.5363042605087864</v>
-      </c>
-      <c r="C32" s="28">
-        <v>6.5338109722380606</v>
-      </c>
-      <c r="D32" s="28">
-        <v>3.7989621013067493E-2</v>
-      </c>
-      <c r="E32" s="28">
-        <v>3.6810921495245737E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="B32" s="25" t="n">
+        <v>6.536304260508786</v>
+      </c>
+      <c r="C32" s="28" t="n">
+        <v>6.533810972238061</v>
+      </c>
+      <c r="D32" s="28" t="n">
+        <v>0.03798962101306749</v>
+      </c>
+      <c r="E32" s="28" t="n">
+        <v>0.03681092149524574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="25" t="n">
         <v>0.1199194010314637</v>
       </c>
-      <c r="C33" s="28">
-        <v>0.12089671764559989</v>
-      </c>
-      <c r="D33" s="28">
+      <c r="C33" s="28" t="n">
+        <v>0.1208967176455999</v>
+      </c>
+      <c r="D33" s="28" t="n">
         <v>0.1044433098927853</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="28" t="n">
         <v>0.1054239517201123</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="24">
-        <v>4.4541066152575998E-2</v>
-      </c>
-      <c r="C34" s="27">
-        <v>4.4541066152575998E-2</v>
-      </c>
-      <c r="D34" s="27">
-        <v>3.796387400858528E-2</v>
-      </c>
-      <c r="E34" s="27">
-        <v>3.796387400858528E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="B34" s="24" t="n">
+        <v>0.044541066152576</v>
+      </c>
+      <c r="C34" s="27" t="n">
+        <v>0.044541066152576</v>
+      </c>
+      <c r="D34" s="27" t="n">
+        <v>0.03796387400858528</v>
+      </c>
+      <c r="E34" s="27" t="n">
+        <v>0.03796387400858528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="24">
-        <v>2.5581608712796501E-2</v>
-      </c>
-      <c r="C35" s="27">
-        <v>2.5581608712796501E-2</v>
-      </c>
-      <c r="D35" s="27">
-        <v>2.1730259127721412E-2</v>
-      </c>
-      <c r="E35" s="27">
-        <v>2.1730259127721412E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="B35" s="24" t="n">
+        <v>0.0255816087127965</v>
+      </c>
+      <c r="C35" s="27" t="n">
+        <v>0.0255816087127965</v>
+      </c>
+      <c r="D35" s="27" t="n">
+        <v>0.02173025912772141</v>
+      </c>
+      <c r="E35" s="27" t="n">
+        <v>0.02173025912772141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="25">
-        <v>1.3142008187728709E-2</v>
-      </c>
-      <c r="C36" s="28">
-        <v>1.539060874652811E-2</v>
-      </c>
-      <c r="D36" s="28">
-        <v>1.563338138862146E-2</v>
-      </c>
-      <c r="E36" s="28">
-        <v>1.6589648080492361E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="B36" s="25" t="n">
+        <v>0.01314200818772871</v>
+      </c>
+      <c r="C36" s="28" t="n">
+        <v>0.01539060874652811</v>
+      </c>
+      <c r="D36" s="28" t="n">
+        <v>0.01563338138862146</v>
+      </c>
+      <c r="E36" s="28" t="n">
+        <v>0.01658964808049236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
-        <v>0.14525513124737119</v>
-      </c>
-      <c r="C37" s="31">
-        <v>2.1920824388186742E-2</v>
-      </c>
-      <c r="D37" s="31">
-        <v>9.9956408058352684E-3</v>
-      </c>
-      <c r="E37" s="31">
-        <v>1.1002763469003101E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="30" t="n">
+        <v>0.1452551312473712</v>
+      </c>
+      <c r="C37" s="31" t="n">
+        <v>0.02192082438818674</v>
+      </c>
+      <c r="D37" s="31" t="n">
+        <v>0.009995640805835268</v>
+      </c>
+      <c r="E37" s="31" t="n">
+        <v>0.0110027634690031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="32">
         <f>SUBTOTAL(101,Tabel3[LocationAPI with RSSI mean error (km)])</f>
-        <v>15.935549491175237</v>
+        <v/>
       </c>
       <c r="C38" s="32">
         <f>SUBTOTAL(101,Tabel3[LocationAPI without RSSI mean error (km)])</f>
-        <v>15.852591464819502</v>
+        <v/>
       </c>
       <c r="D38" s="32">
         <f>SUBTOTAL(101,Tabel3[LocationAPI with RSSI median error (km)])</f>
-        <v>5.2565377523180253E-2</v>
+        <v/>
       </c>
       <c r="E38" s="32">
         <f>SUBTOTAL(101,Tabel3[LocationAPI without RSSI median error (km)])</f>
-        <v>5.1607978486161984E-2</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D37">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="5" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C37">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="7" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B37 B4:C37">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="4" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E37">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule dxfId="2" operator="greaterThan" priority="2" type="cellIs">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/data_comparison.xlsx
+++ b/data/data_comparison.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11748" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11748" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mean + median errors" sheetId="1" r:id="rId1"/>
     <sheet name="Chance of match" sheetId="2" r:id="rId2"/>
     <sheet name="Chance of corrupt BSSID" sheetId="3" r:id="rId3"/>
     <sheet name="LocationAPI - with(out) RSSI" sheetId="4" r:id="rId4"/>
+    <sheet name="Highest RSSI" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Location</t>
   </si>
@@ -52,9 +53,6 @@
   </si>
   <si>
     <t>0,052</t>
-  </si>
-  <si>
-    <t>WiGLE chance of BSSID match (%)</t>
   </si>
   <si>
     <t>WiGLE 2 BSSIDs not found (%)</t>
@@ -92,6 +90,21 @@
   <si>
     <t>LocationAPI: "Corrupt" if error &gt; 150 meters</t>
   </si>
+  <si>
+    <t>WiGLE chance of no match of 1 BSSID (%)</t>
+  </si>
+  <si>
+    <t>Best result</t>
+  </si>
+  <si>
+    <t>LocationAPI: error of combination with highest RSSI2</t>
+  </si>
+  <si>
+    <t>WiGLE: error of combination with highest RSSI</t>
+  </si>
+  <si>
+    <t>no match</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +116,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +170,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -439,15 +460,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -470,10 +523,8 @@
     <xf numFmtId="165" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="4"/>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -504,15 +555,417 @@
     <xf numFmtId="166" fontId="0" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Neutraal" xfId="4" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="3" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verklarende tekst" xfId="5" builtinId="53"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;BAP &quot;\ 0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -880,46 +1333,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -1198,36 +1611,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1609,116 +1992,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1732,62 +2005,5360 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Means per location</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WiGLE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean + median errors'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3.7590432354985513E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4426096909835385E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32707245868565038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7701006224538617E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1332130204720787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0426709995126693E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1211554446353077E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.2827808614485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20006798622189581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8167686134378903E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5587649002947214E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58506804871623663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37385704082918381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.030056436367393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.96983297560488E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.383004940191146E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5971332500345786E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1001653949901381</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.518708112200847</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18055989344133819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8151693771193557E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.176111638258713E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5490676678522286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13602660094608821</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4454481662932679E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0389986956859427E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.599088272619975E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1760455310780197E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.830594106342787</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3797875063140901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10314431239302289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3612817649570349</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1207229841833322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.40032558329095091</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3797137457993161E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37959112269555439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0256-4316-A71C-DD7BAD58F30A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LocationAPI without RSSI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean + median errors'!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>546.38786479147495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7508700279675579E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31081984144760638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7684447273782491E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2467670715647552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5458090292626001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.579172889491679E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2604164317743352E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1630582383899318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6925145765380543E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4277820153357132E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5296107161432078E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9077187438057179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3659057236574479E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.893424249758428E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8740845352458151E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8933393131479527E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1523920674473327E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3257634327963798E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7930646256254898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8610859221155432E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4510001727621571</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6846575250509331E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.2055248780983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.965581555301946E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7616282868674489E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8338039186879282E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1441372574987668E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27196085285516208</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.540145694882423E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5338109722380606</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12089671764559989</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4541066152575998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5581608712796501E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.539060874652811E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1920824388186742E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0256-4316-A71C-DD7BAD58F30A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="438398296"/>
+        <c:axId val="438398624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="438398296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Location number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438398624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error (km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438398296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Medians per location</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WiGLE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean + median errors'!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3.0738807533328132E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2476753635504682E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31888055130384502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5936446941534314E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1949316099614547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6416863901586893E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6942093762085043E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5052321714515411E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1951507675916577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1564725522547153E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0818818898087535E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2408032212477461E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11581470853306371</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8201579489797848E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.636551640426511E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6125099591910489E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3629135804826223E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10361317577604739</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2320468499708588E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8359788518462579E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0254839066463644E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1654867358002443E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5117062614575029E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1590373334995305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1978696207169759E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.3732315989467462E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5295386907854347E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.9102693140546279E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.9753868055817528E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.950524127112784E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.7158800827453226E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27558630223922309</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10669396074352749</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6935992537746181E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8202950075251281E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0548445655529862E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B520-437D-9505-8D4B5F0F6760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LocationAPI without RSSI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean + median errors'!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2.2963518229667992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8544262287531769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30805396715219591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4929687360808092E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.73776840170065E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5691085358153091E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.270711644424948E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.710694621264924E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16233527625047309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2558574752882707E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1840837056184733E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6608694278261328E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5727207882154878E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0758705629549509E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6557797618095043E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.883072403776161E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4653914860836197E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0269067311446723E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4336515176840202E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8742163613464201E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3334472749350988E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6947996248945639E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1037218864693797E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.7838087348634006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7671811392270621E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3173697986620803E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2009666844848061E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.840450380244337E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4409305118097139E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2945301714554809E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6810921495245737E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1054239517201123</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.796387400858528E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1730259127721412E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6589648080492361E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1002763469003101E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B520-437D-9505-8D4B5F0F6760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="438398296"/>
+        <c:axId val="438398624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="438398296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Location number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438398624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error (km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438398296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>WiGLE - Chance of no match of a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> BSSID</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10883419723288358"/>
+          <c:y val="0.15531825795644891"/>
+          <c:w val="0.74096680911117263"/>
+          <c:h val="0.5289224996372941"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WiGLE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chance of match'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>36.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.18181818181818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.622950819672127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.54054054054054</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.41379310344827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.07692307692308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6923076923076934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.12903225806452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.84210526315789</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.756756756756758</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.434782608695659</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54.166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.33333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FA1-460C-8889-D7F5A7E7A292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="501175856"/>
+        <c:axId val="501168312"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chance of match'!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FA1-460C-8889-D7F5A7E7A292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="501175856"/>
+        <c:axId val="501168312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="501175856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Location</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501168312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501168312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chance (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501175856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34519464118492726"/>
+          <c:y val="0.86012938709294506"/>
+          <c:w val="0.30095276250016484"/>
+          <c:h val="8.68937865178913E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Chance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> of no match in a combination of 2 BSSIDs</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WiGLE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chance of match'!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>12.64367816091954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9215686274509798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8409090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9215686274509798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.759562841530059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.403508771929829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9215686274509798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1578947368421049</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.765765765765771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36231884057971009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.724137931034477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65359477124183007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9871977240398291</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.150537634408602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.28070175438596</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.531531531531531</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.3003952569169961</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.260869565217391</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.304347826086961</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.521008403361343</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.483516483516478</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95238095238095244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A2-4E40-9758-528A8DA7BF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LocationAPI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chance of match'!$F$2:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>20.919540229885062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.725490196078431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3030303030303028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.725490196078431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.770491803278691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.37426900584795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9215686274509798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.329004329004329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.074074074074069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.756756756756757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.736842105263159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.971014492753618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.256157635467979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4935064935064926</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5359477124183014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.763869132290189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.897435897435898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6923076923076934</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2820512820512819</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.225806451612903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9215686274509798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1531531531531529</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1857707509881421</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.913043478260871</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.927536231884059</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A2-4E40-9758-528A8DA7BF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="370181192"/>
+        <c:axId val="370182504"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mean WiGLE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chance of match'!$E$2:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A2-4E40-9758-528A8DA7BF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Mean LocationAPI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chance of match'!$G$2:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-97A2-4E40-9758-528A8DA7BF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="370181192"/>
+        <c:axId val="370182504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370181192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Location number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370182504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370182504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chance (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370181192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BA4BA1-ACA5-4D1D-AFE4-239203838B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979A4BB9-DAED-4665-9677-167289409E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93993BA5-DE20-4A66-AED6-C381E1E52F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9353C7-ED86-44F9-902A-A185A032ADBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel2" displayName="Tabel2" ref="A1:E38" totalsRowCount="1" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel2" displayName="Tabel2" ref="A1:E38" totalsRowCount="1" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="A1:E37"/>
   <sortState ref="A2:E37">
     <sortCondition ref="A1:A37"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="2" name="WiGLE mean error (km)" totalsRowFunction="average" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="3" name="LocationAPI without RSSI mean error (km)" totalsRowFunction="average" totalsRowDxfId="42" dataCellStyle="Goed"/>
-    <tableColumn id="4" name="WiGLE median error (km)" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowLabel="0,052" totalsRowDxfId="39"/>
+    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="2" name="WiGLE mean error (km)" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="3" name="LocationAPI without RSSI mean error (km)" totalsRowFunction="average" totalsRowDxfId="61" dataCellStyle="Goed"/>
+    <tableColumn id="4" name="WiGLE median error (km)" totalsRowFunction="average" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowLabel="0,052" totalsRowDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel1" displayName="Tabel1" ref="A1:G38" totalsRowShown="0" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel1" displayName="Tabel1" ref="A1:G38" totalsRowShown="0" dataDxfId="57">
   <autoFilter ref="A1:G38"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="37"/>
-    <tableColumn id="2" name="WiGLE chance of BSSID match (%)" dataDxfId="36"/>
-    <tableColumn id="5" name="Mean" dataDxfId="35"/>
-    <tableColumn id="3" name="WiGLE 2 BSSIDs not found (%)" dataDxfId="34"/>
-    <tableColumn id="6" name="Mean2" dataDxfId="33" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" name="LocationAPI 2 BSSIDs not found (%)" dataDxfId="32"/>
-    <tableColumn id="7" name="Mean3" dataDxfId="31"/>
+    <tableColumn id="1" name="Location" dataDxfId="56"/>
+    <tableColumn id="2" name="WiGLE chance of no match of 1 BSSID (%)" dataDxfId="55"/>
+    <tableColumn id="5" name="Mean" dataDxfId="54"/>
+    <tableColumn id="3" name="WiGLE 2 BSSIDs not found (%)" dataDxfId="53"/>
+    <tableColumn id="6" name="Mean2" dataDxfId="52" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" name="LocationAPI 2 BSSIDs not found (%)" dataDxfId="51"/>
+    <tableColumn id="7" name="Mean3" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel4" displayName="Tabel4" ref="A1:C38" totalsRowCount="1" headerRowDxfId="27" totalsRowDxfId="24" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel4" displayName="Tabel4" ref="A1:C38" totalsRowCount="1" headerRowDxfId="49" totalsRowDxfId="46" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="45">
   <autoFilter ref="A1:C37"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="2" name="WiGLE chance of 'corrupt' BSSID (%)" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="3" name="LocationAPI chance of 'corrupt' BSSID (%)" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" name="WiGLE chance of 'corrupt' BSSID (%)" totalsRowFunction="average" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="3" name="LocationAPI chance of 'corrupt' BSSID (%)" totalsRowFunction="average" dataDxfId="40" totalsRowDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel3" displayName="Tabel3" ref="A1:E38" totalsRowCount="1" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel3" displayName="Tabel3" ref="A1:E38" totalsRowCount="1" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37">
   <autoFilter ref="A1:E37"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="LocationAPI with RSSI mean error (km)" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" totalsRowCellStyle="Neutraal"/>
-    <tableColumn id="3" name="LocationAPI without RSSI mean error (km)" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4" totalsRowCellStyle="Neutraal"/>
-    <tableColumn id="4" name="LocationAPI with RSSI median error (km)" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2" totalsRowCellStyle="Neutraal"/>
-    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0" totalsRowCellStyle="Neutraal"/>
+    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" name="LocationAPI with RSSI mean error (km)" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="32" totalsRowCellStyle="Neutraal"/>
+    <tableColumn id="3" name="LocationAPI without RSSI mean error (km)" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="30" totalsRowCellStyle="Neutraal"/>
+    <tableColumn id="4" name="LocationAPI with RSSI median error (km)" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="28" totalsRowCellStyle="Neutraal"/>
+    <tableColumn id="5" name="LocationAPI without RSSI median error (km)" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" totalsRowCellStyle="Neutraal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="A1:C38" totalsRowCount="1" headerRowDxfId="22" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:C37"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Location" totalsRowLabel="Mean" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="WiGLE: error of combination with highest RSSI" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="LocationAPI: error of combination with highest RSSI2" totalsRowFunction="average" totalsRowDxfId="0" dataCellStyle="Standaard"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2091,7 +7662,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2141,7 +7712,7 @@
       <c r="E2" s="6">
         <v>2.2963518229667992E-2</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2161,8 +7732,8 @@
       <c r="E3" s="6">
         <v>5.8544262287531769E-2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2182,7 +7753,7 @@
       <c r="E4" s="6">
         <v>0.30805396715219591</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2751,7 +8322,7 @@
       <c r="A38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="33">
         <f>SUBTOTAL(101,Tabel2[WiGLE mean error (km)])</f>
         <v>6.3061946528706496</v>
       </c>
@@ -2763,458 +8334,463 @@
         <f>SUBTOTAL(101,Tabel2[WiGLE median error (km)])</f>
         <v>8.239738949405534E-2</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="34" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C37">
-    <cfRule type="cellIs" dxfId="59" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="57" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D37">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B38"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="17">
         <v>36.666666666666657</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="49">
         <v>32.6</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>12.64367816091954</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="49">
         <v>13.2</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>20.919540229885062</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="49">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="17">
         <v>22.222222222222221</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="49">
         <v>32.6</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>3.9215686274509798</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="49">
         <v>13.2</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>13.725490196078431</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="17">
         <v>18.18181818181818</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="49">
         <v>32.6</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>2.8409090909090908</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="49">
         <v>13.2</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>5.3030303030303028</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="17">
         <v>22.222222222222221</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="49">
         <v>32.6</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>3.9215686274509798</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="49">
         <v>13.2</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>13.725490196078431</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="17">
         <v>42.622950819672127</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="49">
         <v>32.6</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>17.759562841530059</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="49">
         <v>13.2</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>23.770491803278691</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="17">
         <v>78.94736842105263</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="49">
         <v>32.6</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>61.403508771929829</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="49">
         <v>13.2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>16.37426900584795</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="17">
         <v>22.222222222222221</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="49">
         <v>32.6</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>3.9215686274509798</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="49">
         <v>13.2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>3.9215686274509798</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="17">
         <v>36</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="49">
         <v>32.6</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>12</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="49">
         <v>13.2</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>15</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="17">
         <v>50</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="49">
         <v>32.6</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>23.80952380952381</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="49">
         <v>13.2</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>4.329004329004329</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="17">
         <v>11.111111111111111</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="49">
         <v>32.6</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="49">
         <v>13.2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="17">
         <v>25</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="49">
         <v>32.6</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>5.5555555555555554</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="49">
         <v>13.2</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>24.074074074074069</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="17">
         <v>50</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="49">
         <v>32.6</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>22.222222222222221</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="49">
         <v>13.2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>6.666666666666667</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="17">
         <v>20</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="49">
         <v>32.6</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>3.1578947368421049</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="49">
         <v>13.2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>0.52631578947368418</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="17">
         <v>40.54054054054054</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="49">
         <v>32.6</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>15.765765765765771</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="49">
         <v>13.2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>6.756756756756757</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="49">
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="17">
         <v>10</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="49">
         <v>32.6</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>0.52631578947368418</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="49">
         <v>13.2</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>14.736842105263159</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3225,19 +8801,19 @@
       <c r="B17" s="17">
         <v>8.3333333333333321</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="49">
         <v>32.6</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>0.36231884057971009</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="49">
         <v>13.2</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>32.971014492753618</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3248,19 +8824,19 @@
       <c r="B18" s="17">
         <v>28.571428571428569</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="49">
         <v>32.6</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>7.1428571428571423</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="49">
         <v>13.2</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>10</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3271,19 +8847,19 @@
       <c r="B19" s="17">
         <v>33.333333333333329</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="49">
         <v>32.6</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>6.666666666666667</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="49">
         <v>13.2</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>0</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3294,19 +8870,19 @@
       <c r="B20" s="17">
         <v>72.41379310344827</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="49">
         <v>32.6</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>51.724137931034477</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="49">
         <v>13.2</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>16.256157635467979</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3317,19 +8893,19 @@
       <c r="B21" s="17">
         <v>50</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="49">
         <v>32.6</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>23.80952380952381</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="49">
         <v>13.2</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>6.4935064935064926</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3340,19 +8916,19 @@
       <c r="B22" s="17">
         <v>11.111111111111111</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="49">
         <v>32.6</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>0.65359477124183007</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="49">
         <v>13.2</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>6.5359477124183014</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3363,19 +8939,19 @@
       <c r="B23" s="17">
         <v>18.421052631578949</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="49">
         <v>32.6</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>2.9871977240398291</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="49">
         <v>13.2</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>21.763869132290189</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3386,19 +8962,19 @@
       <c r="B24" s="17">
         <v>56</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="49">
         <v>32.6</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>30.333333333333339</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="49">
         <v>13.2</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>7</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3409,19 +8985,19 @@
       <c r="B25" s="17">
         <v>23.07692307692308</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="49">
         <v>32.6</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>3.8461538461538458</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="49">
         <v>13.2</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>35.897435897435898</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3432,19 +9008,19 @@
       <c r="B26" s="17">
         <v>0</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="49">
         <v>32.6</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>0</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="49">
         <v>13.2</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>7.6923076923076934</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3455,19 +9031,19 @@
       <c r="B27" s="17">
         <v>20</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="49">
         <v>32.6</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>0</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="49">
         <v>13.2</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>0</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3478,19 +9054,19 @@
       <c r="B28" s="17">
         <v>7.6923076923076934</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="49">
         <v>32.6</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>0</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="49">
         <v>13.2</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <v>1.2820512820512819</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3501,19 +9077,19 @@
       <c r="B29" s="17">
         <v>16.12903225806452</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="49">
         <v>32.6</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>2.150537634408602</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="49">
         <v>13.2</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>3.225806451612903</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3524,19 +9100,19 @@
       <c r="B30" s="17">
         <v>36.84210526315789</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="49">
         <v>32.6</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>12.28070175438596</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="49">
         <v>13.2</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>3.9215686274509798</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3547,19 +9123,19 @@
       <c r="B31" s="17">
         <v>56.756756756756758</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="49">
         <v>32.6</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>31.531531531531531</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="49">
         <v>13.2</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>3.1531531531531529</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3570,19 +9146,19 @@
       <c r="B32" s="17">
         <v>30.434782608695659</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="49">
         <v>32.6</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>8.3003952569169961</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="49">
         <v>13.2</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>1.1857707509881421</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3593,19 +9169,19 @@
       <c r="B33" s="17">
         <v>54.166666666666657</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="49">
         <v>32.6</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>28.260869565217391</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="49">
         <v>13.2</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>23.913043478260871</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3616,19 +9192,19 @@
       <c r="B34" s="17">
         <v>41.666666666666671</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="49">
         <v>32.6</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>16.304347826086961</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="49">
         <v>13.2</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <v>19.927536231884059</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3639,19 +9215,19 @@
       <c r="B35" s="17">
         <v>65.714285714285708</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="49">
         <v>32.6</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>42.521008403361343</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="49">
         <v>13.2</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>22.857142857142861</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3662,19 +9238,19 @@
       <c r="B36" s="17">
         <v>42.857142857142847</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="49">
         <v>32.6</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>16.483516483516478</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="49">
         <v>13.2</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="19">
         <v>30.76923076923077</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3685,19 +9261,19 @@
       <c r="B37" s="17">
         <v>13.33333333333333</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="49">
         <v>32.6</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>0.95238095238095244</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="49">
         <v>13.2</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="19">
         <v>26.666666666666671</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="49">
         <v>12.5</v>
       </c>
     </row>
@@ -3709,23 +9285,24 @@
         <f>AVERAGE(B2:B37)</f>
         <v>32.571977149604514</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="21">
+      <c r="C38" s="4"/>
+      <c r="D38" s="47">
         <f>AVERAGE(D2:D37)</f>
         <v>13.215575447229485</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4">
         <f>AVERAGE(F2:F37)</f>
         <v>12.537270816875289</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3734,7 +9311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -3747,28 +9324,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="47" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44">
+        <v>6.395348837209303</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45">
-        <v>0</v>
-      </c>
-      <c r="C2" s="46">
-        <v>6.395348837209303</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="11"/>
     </row>
@@ -3776,14 +9353,14 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="39">
         <v>0</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="40">
         <v>0</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>22</v>
+      <c r="E3" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -3791,10 +9368,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="39">
         <v>0</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="40">
         <v>100</v>
       </c>
       <c r="F4" s="11"/>
@@ -3803,10 +9380,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="39">
         <v>0</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>5.3030303030303028</v>
       </c>
       <c r="F5" s="11"/>
@@ -3815,10 +9392,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="39">
         <v>7.9069767441860463</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="40">
         <v>2.4372759856630828</v>
       </c>
       <c r="F6" s="11"/>
@@ -3827,10 +9404,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <v>0</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
@@ -3839,10 +9416,10 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="39">
         <v>0</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <v>0</v>
       </c>
       <c r="F8" s="11"/>
@@ -3851,10 +9428,10 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="39">
         <v>9.0909090909090917</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="40">
         <v>0</v>
       </c>
       <c r="F9" s="11"/>
@@ -3863,10 +9440,10 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="39">
         <v>0</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="40">
         <v>66.515837104072389</v>
       </c>
       <c r="F10" s="11"/>
@@ -3875,10 +9452,10 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="39">
         <v>0</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="40">
         <v>0</v>
       </c>
       <c r="F11" s="11"/>
@@ -3887,10 +9464,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>0</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="40">
         <v>0</v>
       </c>
       <c r="F12" s="11"/>
@@ -3899,10 +9476,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="39">
         <v>25.714285714285712</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="40">
         <v>0</v>
       </c>
       <c r="F13" s="11"/>
@@ -3911,10 +9488,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <v>28.804347826086961</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="40">
         <v>19.047619047619051</v>
       </c>
       <c r="F14" s="11"/>
@@ -3923,10 +9500,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="39">
         <v>41.17647058823529</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="40">
         <v>0</v>
       </c>
       <c r="F15" s="11"/>
@@ -3935,10 +9512,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="39">
         <v>1.0582010582010579</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="40">
         <v>0</v>
       </c>
       <c r="F16" s="11"/>
@@ -3947,10 +9524,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="39">
         <v>0</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="40">
         <v>0</v>
       </c>
       <c r="F17" s="11"/>
@@ -3959,10 +9536,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="39">
         <v>0</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="40">
         <v>0</v>
       </c>
       <c r="F18" s="11"/>
@@ -3971,10 +9548,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <v>0</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="40">
         <v>0</v>
       </c>
       <c r="F19" s="11"/>
@@ -3983,10 +9560,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="39">
         <v>14.285714285714279</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="40">
         <v>0</v>
       </c>
       <c r="F20" s="11"/>
@@ -3995,10 +9572,10 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="39">
         <v>14.20454545454546</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="40">
         <v>2.7777777777777781</v>
       </c>
       <c r="F21" s="11"/>
@@ -4007,10 +9584,10 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="39">
         <v>0</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="40">
         <v>0</v>
       </c>
       <c r="F22" s="11"/>
@@ -4019,10 +9596,10 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="39">
         <v>0</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="40">
         <v>3.6363636363636358</v>
       </c>
       <c r="F23" s="11"/>
@@ -4031,10 +9608,10 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="39">
         <v>18.18181818181818</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="40">
         <v>11.111111111111111</v>
       </c>
       <c r="F24" s="11"/>
@@ -4043,10 +9620,10 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="39">
         <v>0</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="40">
         <v>24</v>
       </c>
       <c r="F25" s="11"/>
@@ -4055,10 +9632,10 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="39">
         <v>0</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="40">
         <v>0</v>
       </c>
       <c r="F26" s="11"/>
@@ -4067,10 +9644,10 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="39">
         <v>0</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="40">
         <v>0</v>
       </c>
       <c r="F27" s="11"/>
@@ -4079,10 +9656,10 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="39">
         <v>0</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="40">
         <v>0</v>
       </c>
       <c r="F28" s="11"/>
@@ -4091,10 +9668,10 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="39">
         <v>0</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="40">
         <v>0</v>
       </c>
       <c r="F29" s="11"/>
@@ -4103,10 +9680,10 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="39">
         <v>16.666666666666661</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="40">
         <v>11.564625850340139</v>
       </c>
       <c r="F30" s="11"/>
@@ -4115,10 +9692,10 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="39">
         <v>7.8947368421052628</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="40">
         <v>0</v>
       </c>
       <c r="F31" s="11"/>
@@ -4127,10 +9704,10 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="39">
         <v>0</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="40">
         <v>8</v>
       </c>
       <c r="F32" s="11"/>
@@ -4139,10 +9716,10 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="39">
         <v>37.878787878787882</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="40">
         <v>15.71428571428571</v>
       </c>
       <c r="F33" s="11"/>
@@ -4151,10 +9728,10 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="39">
         <v>0</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="40">
         <v>0</v>
       </c>
       <c r="F34" s="11"/>
@@ -4163,10 +9740,10 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="39">
         <v>16.666666666666661</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="40">
         <v>0</v>
       </c>
       <c r="F35" s="11"/>
@@ -4175,10 +9752,10 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="39">
         <v>0</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="40">
         <v>0</v>
       </c>
       <c r="F36" s="11"/>
@@ -4187,23 +9764,23 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="35">
         <v>25.96153846153846</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="41">
         <v>0</v>
       </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="36">
         <f>SUBTOTAL(101,Tabel4[WiGLE chance of ''corrupt'' BSSID (%)])</f>
         <v>7.3747684849929733</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="36">
         <f>SUBTOTAL(101,Tabel4[LocationAPI chance of ''corrupt'' BSSID (%)])</f>
         <v>7.6806465379853472</v>
       </c>
@@ -4211,12 +9788,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B37">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C37">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4232,7 +9809,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E38"/>
+      <selection sqref="A1:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4246,19 +9823,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4266,56 +9843,56 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>546.38786479147541</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="25">
         <v>546.38786479147495</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="25">
         <v>2.2963518229667992E-2</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <v>2.2963518229667992E-2</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>20</v>
+      <c r="G2" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>6.6589453826347497E-2</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>6.7508700279675579E-2</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>5.8544262287531769E-2</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>5.8544262287531769E-2</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>21</v>
+      <c r="G3" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>0.31081984144760638</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>0.31081984144760638</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>0.30805396715219591</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>0.30805396715219591</v>
       </c>
     </row>
@@ -4323,16 +9900,16 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>6.75349237985714E-2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>6.7684447273782491E-2</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>6.4528522437704669E-2</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>6.4929687360808092E-2</v>
       </c>
     </row>
@@ -4340,16 +9917,16 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>2.2467670715647552</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>2.2467670715647552</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>2.73776840170065E-2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>2.73776840170065E-2</v>
       </c>
     </row>
@@ -4357,16 +9934,16 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>1.7181463681379079E-2</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>1.5458090292626001E-2</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>1.3113749685182309E-2</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>1.5691085358153091E-2</v>
       </c>
     </row>
@@ -4374,16 +9951,16 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>2.523377474158545E-2</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>2.579172889491679E-2</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>2.270711644424948E-2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>2.270711644424948E-2</v>
       </c>
     </row>
@@ -4391,16 +9968,16 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>4.2604164317743352E-2</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>4.2604164317743352E-2</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>3.710694621264924E-2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>3.710694621264924E-2</v>
       </c>
     </row>
@@ -4408,16 +9985,16 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>0.16779120910126999</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>0.1630582383899318</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>0.17294743318736339</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>0.16233527625047309</v>
       </c>
     </row>
@@ -4425,16 +10002,16 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>4.0055828890416499E-2</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="26">
         <v>3.6925145765380543E-2</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>3.5847624697633453E-2</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>3.2558574752882707E-2</v>
       </c>
     </row>
@@ -4442,16 +10019,16 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>7.7630827700998273E-2</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <v>6.4277820153357132E-2</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>6.2981399718856759E-2</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>6.1840837056184733E-2</v>
       </c>
     </row>
@@ -4459,16 +10036,16 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>4.4704625976817368E-2</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="26">
         <v>4.5296107161432078E-2</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>4.4597081552155853E-2</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>3.6608694278261328E-2</v>
       </c>
     </row>
@@ -4476,16 +10053,16 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>1.9077187438057179</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <v>1.9077187438057179</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>5.5727207882154878E-2</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>5.5727207882154878E-2</v>
       </c>
     </row>
@@ -4493,16 +10070,16 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>2.3659057236574479E-2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>2.3659057236574479E-2</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>2.0758705629549509E-2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>2.0758705629549509E-2</v>
       </c>
     </row>
@@ -4510,16 +10087,16 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>5.0776323191418303E-2</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="26">
         <v>3.893424249758428E-2</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <v>4.8382735876750647E-2</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <v>3.6557797618095043E-2</v>
       </c>
     </row>
@@ -4527,16 +10104,16 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>4.8740845352458151E-2</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>4.8740845352458151E-2</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>3.883072403776161E-2</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>3.883072403776161E-2</v>
       </c>
     </row>
@@ -4544,16 +10121,16 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>0.21899005151813941</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="26">
         <v>4.8933393131479527E-2</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <v>4.358991946510065E-2</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <v>4.4653914860836197E-2</v>
       </c>
     </row>
@@ -4561,16 +10138,16 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>6.1523920674473327E-2</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="25">
         <v>6.1523920674473327E-2</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>5.0269067311446723E-2</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>5.0269067311446723E-2</v>
       </c>
     </row>
@@ -4578,16 +10155,16 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <v>4.3399808422187283E-2</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="26">
         <v>4.3257634327963798E-2</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <v>4.4336515176840202E-2</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <v>4.4336515176840202E-2</v>
       </c>
     </row>
@@ -4595,16 +10172,16 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <v>3.8577956147864592E-2</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="26">
         <v>3.7930646256254898E-2</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="25">
         <v>2.8742163613464201E-2</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="25">
         <v>2.8742163613464201E-2</v>
       </c>
     </row>
@@ -4612,16 +10189,16 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <v>3.9541356031615189E-2</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="26">
         <v>3.8610859221155432E-2</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="26">
         <v>3.5628454750964662E-2</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="26">
         <v>3.3334472749350988E-2</v>
       </c>
     </row>
@@ -4629,16 +10206,16 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>4.1108137227847541</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="26">
         <v>1.4510001727621571</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="26">
         <v>4.3063385848842832E-2</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
         <v>3.6947996248945639E-2</v>
       </c>
     </row>
@@ -4646,16 +10223,16 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>8.6846575250509331E-2</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="25">
         <v>8.6846575250509331E-2</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="25">
         <v>8.1037218864693797E-2</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="25">
         <v>8.1037218864693797E-2</v>
       </c>
     </row>
@@ -4663,16 +10240,16 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>10.2055248780983</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="25">
         <v>10.2055248780983</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>8.7838087348634006E-2</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>8.7838087348634006E-2</v>
       </c>
     </row>
@@ -4680,16 +10257,16 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>1.965581555301946E-2</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <v>1.965581555301946E-2</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <v>1.7671811392270621E-2</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <v>1.7671811392270621E-2</v>
       </c>
     </row>
@@ -4697,16 +10274,16 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <v>4.7616282868674489E-2</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="25">
         <v>4.7616282868674489E-2</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <v>4.3173697986620803E-2</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="25">
         <v>4.3173697986620803E-2</v>
       </c>
     </row>
@@ -4714,16 +10291,16 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="23">
         <v>4.6439693993404037E-2</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="26">
         <v>4.8338039186879282E-2</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="26">
         <v>3.9782807177896902E-2</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="26">
         <v>4.2009666844848061E-2</v>
       </c>
     </row>
@@ -4731,16 +10308,16 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>5.3188907899153801E-2</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="26">
         <v>5.1441372574987668E-2</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="26">
         <v>4.9081688292464259E-2</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="26">
         <v>4.840450380244337E-2</v>
       </c>
     </row>
@@ -4748,16 +10325,16 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="23">
         <v>0.2722447537588471</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="26">
         <v>0.27196085285516208</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="26">
         <v>4.3665588408730027E-2</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="26">
         <v>4.4409305118097139E-2</v>
       </c>
     </row>
@@ -4765,16 +10342,16 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>2.50015373576042E-2</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="26">
         <v>2.540145694882423E-2</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="26">
         <v>2.2248419911489559E-2</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="26">
         <v>2.2945301714554809E-2</v>
       </c>
     </row>
@@ -4782,16 +10359,16 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <v>6.5363042605087864</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <v>6.5338109722380606</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="26">
         <v>3.7989621013067493E-2</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="26">
         <v>3.6810921495245737E-2</v>
       </c>
     </row>
@@ -4799,16 +10376,16 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>0.1199194010314637</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="26">
         <v>0.12089671764559989</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="26">
         <v>0.1044433098927853</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="26">
         <v>0.1054239517201123</v>
       </c>
     </row>
@@ -4816,16 +10393,16 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="22">
         <v>4.4541066152575998E-2</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="25">
         <v>4.4541066152575998E-2</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="25">
         <v>3.796387400858528E-2</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="25">
         <v>3.796387400858528E-2</v>
       </c>
     </row>
@@ -4833,16 +10410,16 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="22">
         <v>2.5581608712796501E-2</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="25">
         <v>2.5581608712796501E-2</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="25">
         <v>2.1730259127721412E-2</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <v>2.1730259127721412E-2</v>
       </c>
     </row>
@@ -4850,16 +10427,16 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="23">
         <v>1.3142008187728709E-2</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="26">
         <v>1.539060874652811E-2</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="26">
         <v>1.563338138862146E-2</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="26">
         <v>1.6589648080492361E-2</v>
       </c>
     </row>
@@ -4867,58 +10444,58 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="28">
         <v>0.14525513124737119</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="29">
         <v>2.1920824388186742E-2</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="29">
         <v>9.9956408058352684E-3</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="29">
         <v>1.1002763469003101E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="30">
         <f>SUBTOTAL(101,Tabel3[LocationAPI with RSSI mean error (km)])</f>
         <v>15.935549491175237</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="30">
         <f>SUBTOTAL(101,Tabel3[LocationAPI without RSSI mean error (km)])</f>
         <v>15.852591464819502</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="30">
         <f>SUBTOTAL(101,Tabel3[LocationAPI with RSSI median error (km)])</f>
         <v>5.2565377523180253E-2</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="30">
         <f>SUBTOTAL(101,Tabel3[LocationAPI without RSSI median error (km)])</f>
         <v>5.1607978486161984E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D37">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C37">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B37 B4:C37">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E37">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4928,4 +10505,282 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2.2754067121320758E-2</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.29049103768875639</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6.8042645129231735E-2</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>7.8129302482028457E-2</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="50">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="50">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="50">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="50">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="50">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="50">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="50">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="50">
+        <v>27</v>
+      </c>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="50">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
+        <v>29</v>
+      </c>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="50">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="50">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="50">
+        <v>32</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="50">
+        <v>33</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="50">
+        <v>34</v>
+      </c>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="50">
+        <v>35</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="51">
+        <v>36</v>
+      </c>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="54">
+        <f>SUBTOTAL(101,Tabel5[WiGLE: error of combination with highest RSSI])</f>
+        <v>0.11485426310533434</v>
+      </c>
+      <c r="C38" s="55" t="e">
+        <f>SUBTOTAL(101,Tabel5[LocationAPI: error of combination with highest RSSI2])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/data_comparison.xlsx
+++ b/data/data_comparison.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Location</t>
   </si>
@@ -5134,20 +5134,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="53" customWidth="1"/>
     <col min="2" max="2" width="42.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -5158,249 +5158,315 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="49">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2.2754067121320758E-2</v>
       </c>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>3.6777683199058619E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="49">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>5.6295732946324617E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="49">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.29049103768875639</v>
       </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.28018565116346822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="49">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6.8042645129231735E-2</v>
       </c>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>9.108448859608019E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="49">
         <v>5</v>
       </c>
       <c r="B6">
         <v>7.8129302482028457E-2</v>
       </c>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>7.5915521684292817E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="49">
         <v>6</v>
       </c>
       <c r="B7">
         <v>4.7497250824502138E-2</v>
       </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>6.3388027275901159E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3.6338794222860751E-2</v>
       </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2.1970540768343809E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="49">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2.0662870555947292E-2</v>
       </c>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4.882855601271921E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="49">
         <v>9</v>
       </c>
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="49">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3.0953547589416069E-2</v>
       </c>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1.0264361308076749E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="49">
         <v>11</v>
       </c>
       <c r="B12">
         <v>7.4132979393461293E-2</v>
       </c>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>5.850408241707817E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="49">
         <v>12</v>
       </c>
       <c r="B13">
         <v>4.9246154578647311E-2</v>
       </c>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2.784041719545963E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1.965539608203001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>5.1323973692984859E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="49">
         <v>14</v>
       </c>
       <c r="B15">
         <v>3.2389487339470467E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>4.6433748571819301E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="49">
         <v>15</v>
       </c>
       <c r="B16">
         <v>6.6570367082730827E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>4.4014910901996003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="49">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="49">
         <v>17</v>
       </c>
       <c r="B18">
         <v>6.3629135804826223E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>3.2644514686287388E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="49">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>2.6481671533126909E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="49">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0.11848247807032609</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>3.4100794354838941E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="49">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>5.8719428050553413E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="49">
         <v>22</v>
       </c>
       <c r="B23">
         <v>1.993343775752613E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="49">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2.980599690868627E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="49">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0.1951791960048343</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="49">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="49">
         <v>26</v>
       </c>
       <c r="B27">
         <v>3.2407550746685963E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>4.4046625330704393E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="49">
         <v>27</v>
       </c>
       <c r="B28">
         <v>3.4258050052886943E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>3.6462036747490233E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="49">
         <v>28</v>
       </c>
       <c r="B29">
         <v>6.8781449076960016E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>3.1613731843301768E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="49">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="49">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1.325813851648E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="49">
         <v>31</v>
       </c>
       <c r="B32">
         <v>0.1196731150278019</v>
+      </c>
+      <c r="C32">
+        <v>4.257717226305445E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5410,6 +5476,9 @@
       <c r="B33">
         <v>0.63103958284787054</v>
       </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="49">
@@ -5418,6 +5487,9 @@
       <c r="B34" t="s">
         <v>26</v>
       </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="49">
@@ -5426,6 +5498,9 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="49">
@@ -5434,6 +5509,9 @@
       <c r="B36">
         <v>9.9464665623705234E-2</v>
       </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="50">
@@ -5442,6 +5520,9 @@
       <c r="B37">
         <v>2.5667307705730329E-2</v>
       </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="52" t="s">
@@ -5451,9 +5532,9 @@
         <f>SUBTOTAL(101,Tabel5[WiGLE: error of combination with highest RSSI])</f>
         <v>9.3557494533731536E-2</v>
       </c>
-      <c r="C38" t="e">
+      <c r="C38">
         <f>SUBTOTAL(101,Tabel5[LocationAPI: error of combination with highest RSSI2])</f>
-        <v>#DIV/0!</v>
+        <v>4.5829482412777948E-2</v>
       </c>
     </row>
   </sheetData>
